--- a/formatted/candidates/2000-3500/candidates.xlsx
+++ b/formatted/candidates/2000-3500/candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/nj.migration/formatted/candidates/2000-3500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFB5CA4-2C3E-6441-AAC2-5D85F0F1F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8960775A-CC06-434C-B144-0E86B0A18967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="58540" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="58000" windowHeight="27000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24172,7 +24172,7 @@
   <dimension ref="A1:S1501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="J129" sqref="J129:J1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25148,6 +25148,9 @@
       <c r="G24" s="3" t="s">
         <v>6752</v>
       </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
       <c r="K24">
         <v>13</v>
       </c>
@@ -25189,6 +25192,9 @@
       <c r="E25" t="s">
         <v>1093</v>
       </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
       <c r="K25">
         <v>13</v>
       </c>
@@ -25227,6 +25233,9 @@
       <c r="H26" t="s">
         <v>7871</v>
       </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
       <c r="K26">
         <v>13</v>
       </c>
@@ -25262,6 +25271,9 @@
       <c r="G27" s="3" t="s">
         <v>6794</v>
       </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
       <c r="K27">
         <v>13</v>
       </c>
@@ -25306,6 +25318,9 @@
       <c r="G28" s="3" t="s">
         <v>7083</v>
       </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
       <c r="K28">
         <v>13</v>
       </c>
@@ -25350,6 +25365,9 @@
       <c r="G29" s="3" t="s">
         <v>7340</v>
       </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
       <c r="K29">
         <v>13</v>
       </c>
@@ -25385,6 +25403,9 @@
       <c r="G30" s="3" t="s">
         <v>7402</v>
       </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
       <c r="K30">
         <v>13</v>
       </c>
@@ -25417,6 +25438,9 @@
       <c r="G31" s="3" t="s">
         <v>7427</v>
       </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
       <c r="K31">
         <v>13</v>
       </c>
@@ -25452,6 +25476,9 @@
       <c r="G32" s="3" t="s">
         <v>7501</v>
       </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
       <c r="K32">
         <v>13</v>
       </c>
@@ -25481,6 +25508,9 @@
       <c r="F33" t="s">
         <v>5962</v>
       </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
       <c r="K33">
         <v>13</v>
       </c>
@@ -25516,6 +25546,9 @@
       <c r="G34" s="3" t="s">
         <v>6796</v>
       </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
       <c r="K34">
         <v>13</v>
       </c>
@@ -25560,6 +25593,9 @@
       <c r="G35" s="3" t="s">
         <v>7469</v>
       </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
       <c r="K35">
         <v>13</v>
       </c>
@@ -25595,6 +25631,9 @@
       <c r="G36" s="3" t="s">
         <v>7430</v>
       </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
       <c r="K36">
         <v>13</v>
       </c>
@@ -25627,6 +25666,9 @@
       <c r="G37" s="3" t="s">
         <v>7409</v>
       </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
       <c r="K37">
         <v>13</v>
       </c>
@@ -25662,6 +25704,9 @@
       <c r="G38" s="3" t="s">
         <v>7609</v>
       </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
       <c r="K38">
         <v>13</v>
       </c>
@@ -25694,6 +25739,9 @@
       <c r="G39" s="3" t="s">
         <v>6814</v>
       </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
       <c r="K39">
         <v>7</v>
       </c>
@@ -25738,6 +25786,9 @@
       <c r="G40" s="3" t="s">
         <v>6950</v>
       </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
       <c r="K40">
         <v>7</v>
       </c>
@@ -25785,6 +25836,9 @@
       <c r="G41" s="3" t="s">
         <v>7261</v>
       </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
       <c r="K41">
         <v>7</v>
       </c>
@@ -25820,6 +25874,9 @@
       <c r="G42" s="3" t="s">
         <v>7543</v>
       </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>7</v>
       </c>
@@ -25855,6 +25912,9 @@
       <c r="G43" s="3" t="s">
         <v>6741</v>
       </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
       <c r="K43">
         <v>7</v>
       </c>
@@ -25943,6 +26003,9 @@
       <c r="G45" s="3" t="s">
         <v>6701</v>
       </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
       <c r="K45">
         <v>26</v>
       </c>
@@ -25987,6 +26050,9 @@
       <c r="G46" s="3" t="s">
         <v>6755</v>
       </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
       <c r="K46">
         <v>26</v>
       </c>
@@ -26031,6 +26097,9 @@
       <c r="G47" s="3" t="s">
         <v>6765</v>
       </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
       <c r="K47">
         <v>26</v>
       </c>
@@ -26078,6 +26147,9 @@
       <c r="G48" s="3" t="s">
         <v>6816</v>
       </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
       <c r="K48">
         <v>26</v>
       </c>
@@ -26122,6 +26194,9 @@
       <c r="I49" t="s">
         <v>7733</v>
       </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
       <c r="K49">
         <v>26</v>
       </c>
@@ -26163,6 +26238,9 @@
       <c r="G50" s="3" t="s">
         <v>6890</v>
       </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
       <c r="K50">
         <v>26</v>
       </c>
@@ -26210,6 +26288,9 @@
       <c r="I51" t="s">
         <v>7743</v>
       </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
       <c r="K51">
         <v>26</v>
       </c>
@@ -26254,6 +26335,9 @@
       <c r="G52" s="3" t="s">
         <v>6974</v>
       </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
       <c r="K52">
         <v>26</v>
       </c>
@@ -26301,6 +26385,9 @@
       <c r="G53" s="3" t="s">
         <v>7028</v>
       </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
       <c r="K53">
         <v>26</v>
       </c>
@@ -26345,6 +26432,9 @@
       <c r="G54" s="3" t="s">
         <v>7174</v>
       </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
       <c r="K54">
         <v>26</v>
       </c>
@@ -26383,6 +26473,9 @@
       <c r="I55" t="s">
         <v>7756</v>
       </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
       <c r="K55">
         <v>26</v>
       </c>
@@ -26415,6 +26508,9 @@
       <c r="G56" s="3" t="s">
         <v>7201</v>
       </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
       <c r="K56">
         <v>26</v>
       </c>
@@ -26447,6 +26543,9 @@
       <c r="G57" s="3" t="s">
         <v>7205</v>
       </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
       <c r="K57">
         <v>26</v>
       </c>
@@ -26482,6 +26581,9 @@
       <c r="G58" s="3" t="s">
         <v>7213</v>
       </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
       <c r="K58">
         <v>26</v>
       </c>
@@ -26517,6 +26619,9 @@
       <c r="G59" s="3" t="s">
         <v>7329</v>
       </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
       <c r="K59">
         <v>26</v>
       </c>
@@ -26552,6 +26657,9 @@
       <c r="G60" s="3" t="s">
         <v>7347</v>
       </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
       <c r="K60">
         <v>26</v>
       </c>
@@ -26584,6 +26692,9 @@
       <c r="G61" s="3" t="s">
         <v>7532</v>
       </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
       <c r="K61">
         <v>26</v>
       </c>
@@ -26616,6 +26727,9 @@
       <c r="G62" s="3" t="s">
         <v>7553</v>
       </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
       <c r="K62">
         <v>26</v>
       </c>
@@ -26651,6 +26765,9 @@
       <c r="G63" s="3" t="s">
         <v>7648</v>
       </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
       <c r="K63">
         <v>26</v>
       </c>
@@ -26683,6 +26800,9 @@
       <c r="G64" s="3" t="s">
         <v>7669</v>
       </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
       <c r="K64">
         <v>26</v>
       </c>
@@ -26718,6 +26838,9 @@
       <c r="G65" s="3" t="s">
         <v>7690</v>
       </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
       <c r="K65">
         <v>26</v>
       </c>
@@ -26753,6 +26876,9 @@
       <c r="G66" s="3" t="s">
         <v>7241</v>
       </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
       <c r="K66">
         <v>26</v>
       </c>
@@ -26785,6 +26911,9 @@
       <c r="G67" s="3" t="s">
         <v>7471</v>
       </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
       <c r="K67">
         <v>26</v>
       </c>
@@ -26817,6 +26946,9 @@
       <c r="G68" s="3" t="s">
         <v>7241</v>
       </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
       <c r="K68">
         <v>26</v>
       </c>
@@ -26852,6 +26984,9 @@
       <c r="G69" s="3" t="s">
         <v>6901</v>
       </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
       <c r="K69">
         <v>26</v>
       </c>
@@ -26896,6 +27031,9 @@
       <c r="G70" s="3" t="s">
         <v>7147</v>
       </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
       <c r="K70">
         <v>26</v>
       </c>
@@ -26931,6 +27069,9 @@
       <c r="G71" s="3" t="s">
         <v>6810</v>
       </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
       <c r="K71">
         <v>26</v>
       </c>
@@ -26978,6 +27119,9 @@
       <c r="G72" s="3" t="s">
         <v>7629</v>
       </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
       <c r="K72">
         <v>26</v>
       </c>
@@ -27163,6 +27307,9 @@
       <c r="G77" s="3" t="s">
         <v>6912</v>
       </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
       <c r="K77">
         <v>14</v>
       </c>
@@ -27204,6 +27351,9 @@
       <c r="F78" t="s">
         <v>1523</v>
       </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
       <c r="K78">
         <v>14</v>
       </c>
@@ -27248,6 +27398,9 @@
       <c r="H79" t="s">
         <v>7882</v>
       </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
       <c r="K79">
         <v>14</v>
       </c>
@@ -27283,6 +27436,9 @@
       <c r="G80" s="3" t="s">
         <v>6876</v>
       </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
       <c r="K80">
         <v>8</v>
       </c>
@@ -27330,6 +27486,9 @@
       <c r="G81" s="3" t="s">
         <v>6883</v>
       </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
       <c r="K81">
         <v>8</v>
       </c>
@@ -27377,6 +27536,9 @@
       <c r="G82" s="3" t="s">
         <v>7288</v>
       </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
       <c r="K82">
         <v>8</v>
       </c>
@@ -27409,6 +27571,9 @@
       <c r="G83" s="3" t="s">
         <v>7429</v>
       </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
       <c r="K83">
         <v>8</v>
       </c>
@@ -27441,6 +27606,9 @@
       <c r="G84" s="3" t="s">
         <v>6790</v>
       </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
       <c r="K84">
         <v>27</v>
       </c>
@@ -27485,6 +27653,9 @@
       <c r="G85" s="3" t="s">
         <v>6865</v>
       </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
       <c r="K85">
         <v>27</v>
       </c>
@@ -27529,6 +27700,9 @@
       <c r="G86" s="3" t="s">
         <v>7026</v>
       </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
       <c r="K86">
         <v>27</v>
       </c>
@@ -27570,6 +27744,9 @@
       <c r="G87" s="3" t="s">
         <v>7039</v>
       </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
       <c r="K87">
         <v>27</v>
       </c>
@@ -27617,6 +27794,9 @@
       <c r="G88" s="3" t="s">
         <v>7064</v>
       </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
       <c r="K88">
         <v>27</v>
       </c>
@@ -27661,6 +27841,9 @@
       <c r="G89" s="3" t="s">
         <v>7026</v>
       </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
       <c r="K89">
         <v>27</v>
       </c>
@@ -27696,6 +27879,9 @@
       <c r="G90" s="3" t="s">
         <v>7306</v>
       </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
       <c r="K90">
         <v>27</v>
       </c>
@@ -27728,6 +27914,9 @@
       <c r="G91" s="3" t="s">
         <v>7307</v>
       </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
       <c r="K91">
         <v>27</v>
       </c>
@@ -27763,6 +27952,9 @@
       <c r="H92" t="s">
         <v>7863</v>
       </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
       <c r="K92">
         <v>27</v>
       </c>
@@ -27795,6 +27987,9 @@
       <c r="F93" t="s">
         <v>5415</v>
       </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
       <c r="K93">
         <v>27</v>
       </c>
@@ -27830,6 +28025,9 @@
       <c r="G94" s="3" t="s">
         <v>7531</v>
       </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
       <c r="K94">
         <v>27</v>
       </c>
@@ -30417,6 +30615,9 @@
       <c r="G161" s="3" t="s">
         <v>7581</v>
       </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
       <c r="K161">
         <v>2</v>
       </c>
@@ -30452,6 +30653,9 @@
       <c r="G162" s="3" t="s">
         <v>7523</v>
       </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
       <c r="K162">
         <v>2</v>
       </c>
@@ -30487,6 +30691,9 @@
       <c r="G163" s="3" t="s">
         <v>7718</v>
       </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
       <c r="K163">
         <v>2</v>
       </c>
@@ -30522,6 +30729,9 @@
       <c r="G164" s="3" t="s">
         <v>6699</v>
       </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
       <c r="K164">
         <v>2</v>
       </c>
@@ -30563,6 +30773,9 @@
       <c r="G165" s="3" t="s">
         <v>6707</v>
       </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
       <c r="K165">
         <v>2</v>
       </c>
@@ -30604,6 +30817,9 @@
       <c r="G166" s="3" t="s">
         <v>6714</v>
       </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
       <c r="K166">
         <v>2</v>
       </c>
@@ -30648,6 +30864,9 @@
       <c r="G167" s="3" t="s">
         <v>6726</v>
       </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
       <c r="K167">
         <v>2</v>
       </c>
@@ -30695,6 +30914,9 @@
       <c r="I168" t="s">
         <v>7727</v>
       </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
       <c r="K168">
         <v>2</v>
       </c>
@@ -30736,6 +30958,9 @@
       <c r="G169" s="3" t="s">
         <v>6771</v>
       </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
       <c r="K169">
         <v>2</v>
       </c>
@@ -30780,6 +31005,9 @@
       <c r="H170" t="s">
         <v>7832</v>
       </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
       <c r="K170">
         <v>2</v>
       </c>
@@ -30824,6 +31052,9 @@
       <c r="G171" s="3" t="s">
         <v>6830</v>
       </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
       <c r="K171">
         <v>2</v>
       </c>
@@ -30868,6 +31099,9 @@
       <c r="I172" t="s">
         <v>7731</v>
       </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
       <c r="K172">
         <v>2</v>
       </c>
@@ -30903,6 +31137,9 @@
       <c r="F173" t="s">
         <v>784</v>
       </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
       <c r="K173">
         <v>2</v>
       </c>
@@ -30944,6 +31181,9 @@
       <c r="G174" s="3" t="s">
         <v>6868</v>
       </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
       <c r="K174">
         <v>2</v>
       </c>
@@ -30988,6 +31228,9 @@
       <c r="F175" t="s">
         <v>1161</v>
       </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
       <c r="K175">
         <v>2</v>
       </c>
@@ -31032,6 +31275,9 @@
       <c r="G176" s="3" t="s">
         <v>6892</v>
       </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
       <c r="K176">
         <v>2</v>
       </c>
@@ -31070,6 +31316,9 @@
       <c r="F177" t="s">
         <v>1217</v>
       </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
       <c r="K177">
         <v>2</v>
       </c>
@@ -31114,6 +31363,9 @@
       <c r="G178" s="3" t="s">
         <v>6914</v>
       </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
       <c r="K178">
         <v>2</v>
       </c>
@@ -31164,6 +31416,9 @@
       <c r="H179" t="s">
         <v>7843</v>
       </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
       <c r="K179">
         <v>2</v>
       </c>
@@ -31208,6 +31463,9 @@
       <c r="G180" s="3" t="s">
         <v>7041</v>
       </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
       <c r="K180">
         <v>2</v>
       </c>
@@ -31249,6 +31507,9 @@
       <c r="F181" t="s">
         <v>2025</v>
       </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
       <c r="K181">
         <v>2</v>
       </c>
@@ -31293,6 +31554,9 @@
       <c r="F182" t="s">
         <v>2069</v>
       </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
       <c r="K182">
         <v>2</v>
       </c>
@@ -31340,6 +31604,9 @@
       <c r="H183" t="s">
         <v>7848</v>
       </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
       <c r="K183">
         <v>2</v>
       </c>
@@ -31390,6 +31657,9 @@
       <c r="I184" t="s">
         <v>7751</v>
       </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
       <c r="K184">
         <v>2</v>
       </c>
@@ -31425,6 +31695,9 @@
       <c r="G185" s="3" t="s">
         <v>7136</v>
       </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
       <c r="K185">
         <v>2</v>
       </c>
@@ -31454,6 +31727,9 @@
       <c r="F186" t="s">
         <v>2595</v>
       </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
       <c r="K186">
         <v>2</v>
       </c>
@@ -31489,6 +31765,9 @@
       <c r="I187" t="s">
         <v>7753</v>
       </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
       <c r="K187">
         <v>2</v>
       </c>
@@ -31521,6 +31800,9 @@
       <c r="G188" s="3" t="s">
         <v>7158</v>
       </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
       <c r="K188">
         <v>2</v>
       </c>
@@ -31553,6 +31835,9 @@
       <c r="G189" s="3" t="s">
         <v>7162</v>
       </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
       <c r="K189">
         <v>2</v>
       </c>
@@ -31585,6 +31870,9 @@
       <c r="G190" s="3" t="s">
         <v>7164</v>
       </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
       <c r="K190">
         <v>2</v>
       </c>
@@ -31620,6 +31908,9 @@
       <c r="G191" s="3" t="s">
         <v>7200</v>
       </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
       <c r="K191">
         <v>2</v>
       </c>
@@ -31652,6 +31943,9 @@
       <c r="G192" s="3" t="s">
         <v>7231</v>
       </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
       <c r="K192">
         <v>2</v>
       </c>
@@ -31687,6 +31981,9 @@
       <c r="G193" s="3" t="s">
         <v>7234</v>
       </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
       <c r="K193">
         <v>2</v>
       </c>
@@ -31716,6 +32013,9 @@
       <c r="F194" t="s">
         <v>3188</v>
       </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
       <c r="K194">
         <v>2</v>
       </c>
@@ -31745,6 +32045,9 @@
       <c r="F195" t="s">
         <v>3258</v>
       </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
       <c r="K195">
         <v>2</v>
       </c>
@@ -31780,6 +32083,9 @@
       <c r="G196" s="3" t="s">
         <v>7266</v>
       </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
       <c r="K196">
         <v>2</v>
       </c>
@@ -31815,6 +32121,9 @@
       <c r="G197" s="3" t="s">
         <v>7310</v>
       </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
       <c r="K197">
         <v>2</v>
       </c>
@@ -31847,6 +32156,9 @@
       <c r="F198" t="s">
         <v>4044</v>
       </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
       <c r="K198">
         <v>2</v>
       </c>
@@ -31879,6 +32191,9 @@
       <c r="G199" s="3" t="s">
         <v>7387</v>
       </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
       <c r="K199">
         <v>2</v>
       </c>
@@ -31911,6 +32226,9 @@
       <c r="G200" s="3" t="s">
         <v>7397</v>
       </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
       <c r="K200">
         <v>2</v>
       </c>
@@ -31946,6 +32264,9 @@
       <c r="G201" s="3" t="s">
         <v>7398</v>
       </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
       <c r="K201">
         <v>2</v>
       </c>
@@ -31978,6 +32299,9 @@
       <c r="G202" s="3" t="s">
         <v>7399</v>
       </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
       <c r="K202">
         <v>2</v>
       </c>
@@ -32013,6 +32337,9 @@
       <c r="G203" s="3" t="s">
         <v>7404</v>
       </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
       <c r="K203">
         <v>2</v>
       </c>
@@ -32048,6 +32375,9 @@
       <c r="G204" s="3" t="s">
         <v>7410</v>
       </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
       <c r="K204">
         <v>2</v>
       </c>
@@ -32083,6 +32413,9 @@
       <c r="G205" s="3" t="s">
         <v>7422</v>
       </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
       <c r="K205">
         <v>2</v>
       </c>
@@ -32115,6 +32448,9 @@
       <c r="G206" s="3" t="s">
         <v>7423</v>
       </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
       <c r="K206">
         <v>2</v>
       </c>
@@ -32147,6 +32483,9 @@
       <c r="G207" s="3" t="s">
         <v>7443</v>
       </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
       <c r="K207">
         <v>2</v>
       </c>
@@ -32182,6 +32521,9 @@
       <c r="H208" t="s">
         <v>7872</v>
       </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
       <c r="K208">
         <v>2</v>
       </c>
@@ -32217,6 +32559,9 @@
       <c r="G209" s="3" t="s">
         <v>7464</v>
       </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
       <c r="K209">
         <v>2</v>
       </c>
@@ -32252,6 +32597,9 @@
       <c r="G210" s="3" t="s">
         <v>7502</v>
       </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
       <c r="K210">
         <v>2</v>
       </c>
@@ -32281,6 +32629,9 @@
       <c r="F211" t="s">
         <v>4909</v>
       </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
       <c r="K211">
         <v>2</v>
       </c>
@@ -32316,6 +32667,9 @@
       <c r="G212" s="3" t="s">
         <v>7513</v>
       </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
       <c r="K212">
         <v>2</v>
       </c>
@@ -32351,6 +32705,9 @@
       <c r="G213" s="3" t="s">
         <v>7519</v>
       </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
       <c r="K213">
         <v>2</v>
       </c>
@@ -32386,6 +32743,9 @@
       <c r="G214" s="3" t="s">
         <v>7522</v>
       </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
       <c r="K214">
         <v>2</v>
       </c>
@@ -32418,6 +32778,9 @@
       <c r="G215" s="3" t="s">
         <v>7529</v>
       </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
       <c r="K215">
         <v>2</v>
       </c>
@@ -32453,6 +32816,9 @@
       <c r="G216" s="3" t="s">
         <v>7542</v>
       </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
       <c r="K216">
         <v>2</v>
       </c>
@@ -32485,6 +32851,9 @@
       <c r="F217" t="s">
         <v>5129</v>
       </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
       <c r="K217">
         <v>2</v>
       </c>
@@ -32517,6 +32886,9 @@
       <c r="G218" s="3" t="s">
         <v>7551</v>
       </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
       <c r="K218">
         <v>2</v>
       </c>
@@ -32552,6 +32924,9 @@
       <c r="G219" s="3" t="s">
         <v>7556</v>
       </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
       <c r="K219">
         <v>2</v>
       </c>
@@ -32584,6 +32959,9 @@
       <c r="G220" s="3" t="s">
         <v>7567</v>
       </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
       <c r="K220">
         <v>2</v>
       </c>
@@ -32616,6 +32994,9 @@
       <c r="F221" t="s">
         <v>5331</v>
       </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
       <c r="K221">
         <v>2</v>
       </c>
@@ -32648,6 +33029,9 @@
       <c r="G222" s="3" t="s">
         <v>7579</v>
       </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
       <c r="K222">
         <v>2</v>
       </c>
@@ -32680,6 +33064,9 @@
       <c r="G223" s="3" t="s">
         <v>7618</v>
       </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
       <c r="K223">
         <v>2</v>
       </c>
@@ -32712,6 +33099,9 @@
       <c r="F224" t="s">
         <v>5704</v>
       </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
       <c r="K224">
         <v>2</v>
       </c>
@@ -32744,6 +33134,9 @@
       <c r="G225" s="3" t="s">
         <v>7644</v>
       </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
       <c r="K225">
         <v>2</v>
       </c>
@@ -32776,6 +33169,9 @@
       <c r="G226" s="3" t="s">
         <v>7660</v>
       </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
       <c r="K226">
         <v>2</v>
       </c>
@@ -32808,6 +33204,9 @@
       <c r="G227" s="3" t="s">
         <v>7671</v>
       </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
       <c r="K227">
         <v>2</v>
       </c>
@@ -32843,6 +33242,9 @@
       <c r="G228" s="3" t="s">
         <v>7676</v>
       </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
       <c r="K228">
         <v>2</v>
       </c>
@@ -32875,6 +33277,9 @@
       <c r="F229" t="s">
         <v>6165</v>
       </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
       <c r="K229">
         <v>2</v>
       </c>
@@ -32910,6 +33315,9 @@
       <c r="I230" t="s">
         <v>7803</v>
       </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
       <c r="K230">
         <v>2</v>
       </c>
@@ -32942,6 +33350,9 @@
       <c r="F231" t="s">
         <v>6247</v>
       </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
       <c r="K231">
         <v>2</v>
       </c>
@@ -32971,6 +33382,9 @@
       <c r="F232" t="s">
         <v>6264</v>
       </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
       <c r="K232">
         <v>2</v>
       </c>
@@ -33006,6 +33420,9 @@
       <c r="G233" s="3" t="s">
         <v>7701</v>
       </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
       <c r="K233">
         <v>2</v>
       </c>
@@ -33038,6 +33455,9 @@
       <c r="F234" t="s">
         <v>6339</v>
       </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
       <c r="K234">
         <v>2</v>
       </c>
@@ -33070,6 +33490,9 @@
       <c r="F235" t="s">
         <v>6409</v>
       </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
       <c r="K235">
         <v>2</v>
       </c>
@@ -33105,6 +33528,9 @@
       <c r="I236" t="s">
         <v>7814</v>
       </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
       <c r="K236">
         <v>2</v>
       </c>
@@ -33137,6 +33563,9 @@
       <c r="F237" t="s">
         <v>6477</v>
       </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
       <c r="K237">
         <v>2</v>
       </c>
@@ -33169,6 +33598,9 @@
       <c r="F238" t="s">
         <v>6503</v>
       </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
       <c r="K238">
         <v>2</v>
       </c>
@@ -33201,6 +33633,9 @@
       <c r="F239" t="s">
         <v>6511</v>
       </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
       <c r="K239">
         <v>2</v>
       </c>
@@ -33236,6 +33671,9 @@
       <c r="G240" s="3" t="s">
         <v>7715</v>
       </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
       <c r="K240">
         <v>2</v>
       </c>
@@ -33271,6 +33709,9 @@
       <c r="I241" t="s">
         <v>7824</v>
       </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
       <c r="K241">
         <v>2</v>
       </c>
@@ -33300,6 +33741,9 @@
       <c r="F242" t="s">
         <v>6625</v>
       </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
       <c r="K242">
         <v>2</v>
       </c>
@@ -33329,6 +33773,9 @@
       <c r="F243" t="s">
         <v>6645</v>
       </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
       <c r="K243">
         <v>2</v>
       </c>
@@ -33364,6 +33811,9 @@
       <c r="I244" t="s">
         <v>7826</v>
       </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
       <c r="K244">
         <v>2</v>
       </c>
@@ -33396,6 +33846,9 @@
       <c r="F245" t="s">
         <v>6670</v>
       </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
       <c r="K245">
         <v>2</v>
       </c>
@@ -33431,6 +33884,9 @@
       <c r="I246" t="s">
         <v>7746</v>
       </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
       <c r="K246">
         <v>2</v>
       </c>
@@ -33475,6 +33931,9 @@
       <c r="G247" s="3" t="s">
         <v>7298</v>
       </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
       <c r="K247">
         <v>2</v>
       </c>
@@ -33507,6 +33966,9 @@
       <c r="F248" t="s">
         <v>157</v>
       </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
       <c r="K248">
         <v>2</v>
       </c>
@@ -33557,6 +34019,9 @@
       <c r="I249" t="s">
         <v>7752</v>
       </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
       <c r="K249">
         <v>2</v>
       </c>
@@ -33592,6 +34057,9 @@
       <c r="I250" t="s">
         <v>7808</v>
       </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
       <c r="K250">
         <v>2</v>
       </c>
@@ -33624,6 +34092,9 @@
       <c r="G251" s="3" t="s">
         <v>6778</v>
       </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
       <c r="K251">
         <v>2</v>
       </c>
@@ -33668,6 +34139,9 @@
       <c r="G252" s="3" t="s">
         <v>7446</v>
       </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
       <c r="K252">
         <v>2</v>
       </c>
@@ -33703,6 +34177,9 @@
       <c r="G253" s="3" t="s">
         <v>7682</v>
       </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
       <c r="K253">
         <v>2</v>
       </c>
@@ -33738,6 +34215,9 @@
       <c r="G254" s="3" t="s">
         <v>6985</v>
       </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
       <c r="K254">
         <v>2</v>
       </c>
@@ -33782,6 +34262,9 @@
       <c r="G255" s="3" t="s">
         <v>7086</v>
       </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
       <c r="K255">
         <v>2</v>
       </c>
@@ -33823,6 +34306,9 @@
       <c r="G256" s="3" t="s">
         <v>7392</v>
       </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
       <c r="K256">
         <v>2</v>
       </c>
@@ -33855,6 +34341,9 @@
       <c r="G257" s="3" t="s">
         <v>7018</v>
       </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
       <c r="K257">
         <v>2</v>
       </c>
@@ -33899,6 +34388,9 @@
       <c r="F258" t="s">
         <v>753</v>
       </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
       <c r="K258">
         <v>2</v>
       </c>
@@ -33943,6 +34435,9 @@
       <c r="G259" s="3" t="s">
         <v>7685</v>
       </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
       <c r="K259">
         <v>2</v>
       </c>
@@ -33978,6 +34473,9 @@
       <c r="I260" t="s">
         <v>7738</v>
       </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
       <c r="K260">
         <v>2</v>
       </c>
@@ -34019,6 +34517,9 @@
       <c r="G261" s="3" t="s">
         <v>6924</v>
       </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
       <c r="K261">
         <v>2</v>
       </c>
@@ -34063,6 +34564,9 @@
       <c r="G262" s="3" t="s">
         <v>6855</v>
       </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
       <c r="K262">
         <v>2</v>
       </c>
@@ -34110,6 +34614,9 @@
       <c r="I263" t="s">
         <v>7759</v>
       </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
       <c r="K263">
         <v>2</v>
       </c>
@@ -34142,6 +34649,9 @@
       <c r="G264" s="3" t="s">
         <v>7070</v>
       </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
       <c r="K264">
         <v>2</v>
       </c>
@@ -34183,6 +34693,9 @@
       <c r="G265" s="3" t="s">
         <v>7283</v>
       </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
       <c r="K265">
         <v>2</v>
       </c>
@@ -34218,6 +34731,9 @@
       <c r="H266" t="s">
         <v>7830</v>
       </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
       <c r="K266">
         <v>2</v>
       </c>
@@ -34259,6 +34775,9 @@
       <c r="F267" t="s">
         <v>4500</v>
       </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
       <c r="K267">
         <v>2</v>
       </c>
@@ -34291,6 +34810,9 @@
       <c r="G268" s="3" t="s">
         <v>6724</v>
       </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
       <c r="K268">
         <v>2</v>
       </c>
@@ -34338,6 +34860,9 @@
       <c r="I269" t="s">
         <v>7790</v>
       </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
       <c r="K269">
         <v>2</v>
       </c>
@@ -34376,6 +34901,9 @@
       <c r="I270" t="s">
         <v>7755</v>
       </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
       <c r="K270">
         <v>2</v>
       </c>
@@ -34411,6 +34939,9 @@
       <c r="I271" t="s">
         <v>7757</v>
       </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
       <c r="K271">
         <v>2</v>
       </c>
@@ -34443,6 +34974,9 @@
       <c r="F272" t="s">
         <v>617</v>
       </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
       <c r="K272">
         <v>2</v>
       </c>
@@ -34481,6 +35015,9 @@
       <c r="F273" t="s">
         <v>6275</v>
       </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
       <c r="K273">
         <v>2</v>
       </c>
@@ -34513,6 +35050,9 @@
       <c r="G274" s="3" t="s">
         <v>6748</v>
       </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
       <c r="K274">
         <v>2</v>
       </c>
@@ -34557,6 +35097,9 @@
       <c r="G275" s="3" t="s">
         <v>7343</v>
       </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
       <c r="K275">
         <v>2</v>
       </c>
@@ -34589,6 +35132,9 @@
       <c r="G276" s="3" t="s">
         <v>7023</v>
       </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
       <c r="K276">
         <v>2</v>
       </c>
@@ -34633,6 +35179,9 @@
       <c r="G277" s="3" t="s">
         <v>7436</v>
       </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
       <c r="K277">
         <v>2</v>
       </c>
@@ -34671,6 +35220,9 @@
       <c r="I278" t="s">
         <v>7807</v>
       </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
       <c r="K278">
         <v>2</v>
       </c>
@@ -34706,6 +35258,9 @@
       <c r="G279" s="3" t="s">
         <v>7263</v>
       </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
       <c r="K279">
         <v>2</v>
       </c>
@@ -35274,6 +35829,9 @@
       <c r="I293" t="s">
         <v>7725</v>
       </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
       <c r="K293">
         <v>70</v>
       </c>
@@ -35318,6 +35876,9 @@
       <c r="G294" s="3" t="s">
         <v>7006</v>
       </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
       <c r="K294">
         <v>70</v>
       </c>
@@ -35362,6 +35923,9 @@
       <c r="G295" s="3" t="s">
         <v>7111</v>
       </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
       <c r="K295">
         <v>70</v>
       </c>
@@ -35394,6 +35958,9 @@
       <c r="G296" s="3" t="s">
         <v>7202</v>
       </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
       <c r="K296">
         <v>70</v>
       </c>
@@ -35426,6 +35993,9 @@
       <c r="G297" s="3" t="s">
         <v>7000</v>
       </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
       <c r="K297">
         <v>70</v>
       </c>
@@ -35461,6 +36031,9 @@
       <c r="G298" s="3" t="s">
         <v>7474</v>
       </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
       <c r="K298">
         <v>70</v>
       </c>
@@ -35493,6 +36066,9 @@
       <c r="G299" s="3" t="s">
         <v>7500</v>
       </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
       <c r="K299">
         <v>70</v>
       </c>
@@ -35528,6 +36104,9 @@
       <c r="H300" t="s">
         <v>7883</v>
       </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
       <c r="K300">
         <v>70</v>
       </c>
@@ -35560,6 +36139,9 @@
       <c r="F301" t="s">
         <v>5903</v>
       </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
       <c r="K301">
         <v>70</v>
       </c>
@@ -35592,6 +36174,9 @@
       <c r="G302" s="3" t="s">
         <v>7265</v>
       </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
       <c r="K302">
         <v>70</v>
       </c>
@@ -36004,6 +36589,9 @@
       <c r="F313" t="s">
         <v>3373</v>
       </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
       <c r="K313">
         <v>6</v>
       </c>
@@ -36039,6 +36627,9 @@
       <c r="G314" s="3" t="s">
         <v>6700</v>
       </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
       <c r="K314">
         <v>6</v>
       </c>
@@ -36086,6 +36677,9 @@
       <c r="G315" s="3" t="s">
         <v>6736</v>
       </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
       <c r="K315">
         <v>6</v>
       </c>
@@ -36130,6 +36724,9 @@
       <c r="G316" s="3" t="s">
         <v>6757</v>
       </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
       <c r="K316">
         <v>6</v>
       </c>
@@ -36177,6 +36774,9 @@
       <c r="G317" s="3" t="s">
         <v>6850</v>
       </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
       <c r="K317">
         <v>6</v>
       </c>
@@ -36224,6 +36824,9 @@
       <c r="G318" s="3" t="s">
         <v>6938</v>
       </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
       <c r="K318">
         <v>6</v>
       </c>
@@ -36271,6 +36874,9 @@
       <c r="G319" s="3" t="s">
         <v>6946</v>
       </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
       <c r="K319">
         <v>6</v>
       </c>
@@ -36315,6 +36921,9 @@
       <c r="G320" s="3" t="s">
         <v>6951</v>
       </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
       <c r="K320">
         <v>6</v>
       </c>
@@ -36356,6 +36965,9 @@
       <c r="G321" s="3" t="s">
         <v>6957</v>
       </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
       <c r="K321">
         <v>6</v>
       </c>
@@ -36403,6 +37015,9 @@
       <c r="G322" s="3" t="s">
         <v>6958</v>
       </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
       <c r="K322">
         <v>6</v>
       </c>
@@ -36447,6 +37062,9 @@
       <c r="F323" t="s">
         <v>1563</v>
       </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
       <c r="K323">
         <v>6</v>
       </c>
@@ -36491,6 +37109,9 @@
       <c r="G324" s="3" t="s">
         <v>6963</v>
       </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
       <c r="K324">
         <v>6</v>
       </c>
@@ -36535,6 +37156,9 @@
       <c r="G325" s="3" t="s">
         <v>6987</v>
       </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
       <c r="K325">
         <v>6</v>
       </c>
@@ -36582,6 +37206,9 @@
       <c r="G326" s="3" t="s">
         <v>7100</v>
       </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
       <c r="K326">
         <v>6</v>
       </c>
@@ -36617,6 +37244,9 @@
       <c r="G327" s="3" t="s">
         <v>7170</v>
       </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
       <c r="K327">
         <v>6</v>
       </c>
@@ -36652,6 +37282,9 @@
       <c r="G328" s="3" t="s">
         <v>7177</v>
       </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
       <c r="K328">
         <v>6</v>
       </c>
@@ -36687,6 +37320,9 @@
       <c r="G329" s="3" t="s">
         <v>7181</v>
       </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
       <c r="K329">
         <v>6</v>
       </c>
@@ -36722,6 +37358,9 @@
       <c r="G330" s="3" t="s">
         <v>7195</v>
       </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
       <c r="K330">
         <v>6</v>
       </c>
@@ -36754,6 +37393,9 @@
       <c r="I331" t="s">
         <v>7760</v>
       </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
       <c r="K331">
         <v>6</v>
       </c>
@@ -36786,6 +37428,9 @@
       <c r="G332" s="3" t="s">
         <v>7217</v>
       </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
       <c r="K332">
         <v>6</v>
       </c>
@@ -36821,6 +37466,9 @@
       <c r="I333" t="s">
         <v>7761</v>
       </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
       <c r="K333">
         <v>6</v>
       </c>
@@ -36856,6 +37504,9 @@
       <c r="G334" s="3" t="s">
         <v>7219</v>
       </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
       <c r="K334">
         <v>6</v>
       </c>
@@ -36888,6 +37539,9 @@
       <c r="F335" t="s">
         <v>3677</v>
       </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
       <c r="K335">
         <v>6</v>
       </c>
@@ -36917,6 +37571,9 @@
       <c r="F336" t="s">
         <v>4225</v>
       </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
       <c r="K336">
         <v>6</v>
       </c>
@@ -36949,6 +37606,9 @@
       <c r="G337" s="3" t="s">
         <v>7416</v>
       </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
       <c r="K337">
         <v>6</v>
       </c>
@@ -36984,6 +37644,9 @@
       <c r="G338" s="3" t="s">
         <v>7435</v>
       </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
       <c r="K338">
         <v>6</v>
       </c>
@@ -37016,6 +37679,9 @@
       <c r="G339" s="3" t="s">
         <v>7455</v>
       </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
       <c r="K339">
         <v>6</v>
       </c>
@@ -37051,6 +37717,9 @@
       <c r="G340" s="3" t="s">
         <v>7486</v>
       </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
       <c r="K340">
         <v>6</v>
       </c>
@@ -37080,6 +37749,9 @@
       <c r="F341" t="s">
         <v>4778</v>
       </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
       <c r="K341">
         <v>6</v>
       </c>
@@ -37118,6 +37790,9 @@
       <c r="I342" t="s">
         <v>7792</v>
       </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
       <c r="K342">
         <v>6</v>
       </c>
@@ -37150,6 +37825,9 @@
       <c r="G343" s="3" t="s">
         <v>7623</v>
       </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
       <c r="K343">
         <v>6</v>
       </c>
@@ -37185,6 +37863,9 @@
       <c r="G344" s="3" t="s">
         <v>7632</v>
       </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
       <c r="K344">
         <v>6</v>
       </c>
@@ -37217,6 +37898,9 @@
       <c r="F345" t="s">
         <v>6125</v>
       </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
       <c r="K345">
         <v>6</v>
       </c>
@@ -37252,6 +37936,9 @@
       <c r="G346" s="3" t="s">
         <v>7703</v>
       </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
       <c r="K346">
         <v>6</v>
       </c>
@@ -37284,6 +37971,9 @@
       <c r="F347" t="s">
         <v>6370</v>
       </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
       <c r="K347">
         <v>6</v>
       </c>
@@ -37322,6 +38012,9 @@
       <c r="I348" t="s">
         <v>7812</v>
       </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
       <c r="K348">
         <v>6</v>
       </c>
@@ -37351,6 +38044,9 @@
       <c r="F349" t="s">
         <v>6435</v>
       </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
       <c r="K349">
         <v>6</v>
       </c>
@@ -37386,6 +38082,9 @@
       <c r="G350" s="3" t="s">
         <v>7711</v>
       </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
       <c r="K350">
         <v>6</v>
       </c>
@@ -37421,6 +38120,9 @@
       <c r="G351" s="3" t="s">
         <v>7713</v>
       </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
       <c r="K351">
         <v>6</v>
       </c>
@@ -37453,6 +38155,9 @@
       <c r="F352" t="s">
         <v>6675</v>
       </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
       <c r="K352">
         <v>6</v>
       </c>
@@ -37485,6 +38190,9 @@
       <c r="G353" s="3" t="s">
         <v>6809</v>
       </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
       <c r="K353">
         <v>6</v>
       </c>
@@ -37514,6 +38222,9 @@
       <c r="F354" t="s">
         <v>4021</v>
       </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
       <c r="K354">
         <v>6</v>
       </c>
@@ -37549,6 +38260,9 @@
       <c r="G355" s="3" t="s">
         <v>6910</v>
       </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
       <c r="K355">
         <v>6</v>
       </c>
@@ -37593,6 +38307,9 @@
       <c r="G356" s="3" t="s">
         <v>7704</v>
       </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
       <c r="K356">
         <v>6</v>
       </c>
@@ -37625,6 +38342,9 @@
       <c r="G357" s="3" t="s">
         <v>7373</v>
       </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
       <c r="K357">
         <v>6</v>
       </c>
@@ -37657,6 +38377,9 @@
       <c r="F358" t="s">
         <v>6196</v>
       </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
       <c r="K358">
         <v>6</v>
       </c>
@@ -37689,6 +38412,9 @@
       <c r="G359" s="3" t="s">
         <v>7315</v>
       </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
       <c r="K359">
         <v>6</v>
       </c>
@@ -37724,6 +38450,9 @@
       <c r="G360" s="3" t="s">
         <v>7408</v>
       </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
       <c r="K360">
         <v>6</v>
       </c>
@@ -37759,6 +38488,9 @@
       <c r="G361" s="3" t="s">
         <v>7275</v>
       </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
       <c r="K361">
         <v>6</v>
       </c>
@@ -37864,6 +38596,9 @@
       <c r="G364" s="3" t="s">
         <v>7574</v>
       </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
       <c r="K364">
         <v>5</v>
       </c>
@@ -37896,6 +38631,9 @@
       <c r="G365" s="3" t="s">
         <v>6709</v>
       </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
       <c r="K365">
         <v>5</v>
       </c>
@@ -37943,6 +38681,9 @@
       <c r="G366" s="3" t="s">
         <v>6766</v>
       </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
       <c r="K366">
         <v>5</v>
       </c>
@@ -37984,6 +38725,9 @@
       <c r="F367" t="s">
         <v>501</v>
       </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
       <c r="K367">
         <v>5</v>
       </c>
@@ -38022,6 +38766,9 @@
       <c r="G368" s="3" t="s">
         <v>6800</v>
       </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
       <c r="K368">
         <v>5</v>
       </c>
@@ -38066,6 +38813,9 @@
       <c r="G369" s="3" t="s">
         <v>6822</v>
       </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
       <c r="K369">
         <v>5</v>
       </c>
@@ -38107,6 +38857,9 @@
       <c r="F370" t="s">
         <v>841</v>
       </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
       <c r="K370">
         <v>5</v>
       </c>
@@ -38154,6 +38907,9 @@
       <c r="G371" s="3" t="s">
         <v>6860</v>
       </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
       <c r="K371">
         <v>5</v>
       </c>
@@ -38201,6 +38957,9 @@
       <c r="G372" s="3" t="s">
         <v>7001</v>
       </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
       <c r="K372">
         <v>5</v>
       </c>
@@ -38251,6 +39010,9 @@
       <c r="I373" t="s">
         <v>7747</v>
       </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
       <c r="K373">
         <v>5</v>
       </c>
@@ -38295,6 +39057,9 @@
       <c r="G374" s="3" t="s">
         <v>7081</v>
       </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
       <c r="K374">
         <v>5</v>
       </c>
@@ -38342,6 +39107,9 @@
       <c r="G375" s="3" t="s">
         <v>7142</v>
       </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
       <c r="K375">
         <v>5</v>
       </c>
@@ -38377,6 +39145,9 @@
       <c r="G376" s="3" t="s">
         <v>7240</v>
       </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
       <c r="K376">
         <v>5</v>
       </c>
@@ -38409,6 +39180,9 @@
       <c r="G377" s="3" t="s">
         <v>7300</v>
       </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
       <c r="K377">
         <v>5</v>
       </c>
@@ -38444,6 +39218,9 @@
       <c r="G378" s="3" t="s">
         <v>7332</v>
       </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
       <c r="K378">
         <v>5</v>
       </c>
@@ -38476,6 +39253,9 @@
       <c r="F379" t="s">
         <v>3896</v>
       </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
       <c r="K379">
         <v>5</v>
       </c>
@@ -38508,6 +39288,9 @@
       <c r="F380" t="s">
         <v>3982</v>
       </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
       <c r="K380">
         <v>5</v>
       </c>
@@ -38540,6 +39323,9 @@
       <c r="F381" t="s">
         <v>4082</v>
       </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
       <c r="K381">
         <v>5</v>
       </c>
@@ -38572,6 +39358,9 @@
       <c r="G382" s="3" t="s">
         <v>7396</v>
       </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
       <c r="K382">
         <v>5</v>
       </c>
@@ -38604,6 +39393,9 @@
       <c r="G383" s="3" t="s">
         <v>7602</v>
       </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
       <c r="K383">
         <v>5</v>
       </c>
@@ -38639,6 +39431,9 @@
       <c r="G384" s="3" t="s">
         <v>7635</v>
       </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
       <c r="K384">
         <v>5</v>
       </c>
@@ -38668,6 +39463,9 @@
       <c r="F385" t="s">
         <v>5801</v>
       </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
       <c r="K385">
         <v>5</v>
       </c>
@@ -38697,6 +39495,9 @@
       <c r="F386" t="s">
         <v>5921</v>
       </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
       <c r="K386">
         <v>5</v>
       </c>
@@ -38729,6 +39530,9 @@
       <c r="F387" t="s">
         <v>6021</v>
       </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
       <c r="K387">
         <v>5</v>
       </c>
@@ -38761,6 +39565,9 @@
       <c r="F388" t="s">
         <v>6082</v>
       </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
       <c r="K388">
         <v>5</v>
       </c>
@@ -38793,6 +39600,9 @@
       <c r="F389" t="s">
         <v>6220</v>
       </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
       <c r="K389">
         <v>5</v>
       </c>
@@ -38825,6 +39635,9 @@
       <c r="F390" t="s">
         <v>6378</v>
       </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
       <c r="K390">
         <v>5</v>
       </c>
@@ -38857,6 +39670,9 @@
       <c r="G391" s="3" t="s">
         <v>7417</v>
       </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
       <c r="K391">
         <v>5</v>
       </c>
@@ -38886,6 +39702,9 @@
       <c r="F392" t="s">
         <v>2885</v>
       </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
       <c r="K392">
         <v>5</v>
       </c>
@@ -38921,6 +39740,9 @@
       <c r="G393" s="3" t="s">
         <v>6967</v>
       </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
       <c r="K393">
         <v>5</v>
       </c>
@@ -38962,6 +39784,9 @@
       <c r="F394" t="s">
         <v>1621</v>
       </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
       <c r="K394">
         <v>5</v>
       </c>
@@ -39006,6 +39831,9 @@
       <c r="I395" t="s">
         <v>7789</v>
       </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
       <c r="K395">
         <v>5</v>
       </c>
@@ -39038,6 +39866,9 @@
       <c r="G396" s="3" t="s">
         <v>7171</v>
       </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
       <c r="K396">
         <v>5</v>
       </c>
@@ -39067,6 +39898,9 @@
       <c r="F397" t="s">
         <v>1500</v>
       </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
       <c r="K397">
         <v>5</v>
       </c>
@@ -39108,6 +39942,9 @@
       <c r="F398" t="s">
         <v>311</v>
       </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
       <c r="K398">
         <v>5</v>
       </c>
@@ -39155,6 +39992,9 @@
       <c r="G399" s="3" t="s">
         <v>7053</v>
       </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
       <c r="K399">
         <v>5</v>
       </c>
@@ -39202,6 +40042,9 @@
       <c r="G400" s="3" t="s">
         <v>7720</v>
       </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
       <c r="K400">
         <v>5</v>
       </c>
@@ -39234,6 +40077,9 @@
       <c r="G401" s="3" t="s">
         <v>6984</v>
       </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
       <c r="K401">
         <v>21</v>
       </c>
@@ -39278,6 +40124,9 @@
       <c r="G402" s="3" t="s">
         <v>7014</v>
       </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
       <c r="K402">
         <v>21</v>
       </c>
@@ -39322,6 +40171,9 @@
       <c r="G403" s="3" t="s">
         <v>7060</v>
       </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
       <c r="K403">
         <v>21</v>
       </c>
@@ -39366,6 +40218,9 @@
       <c r="G404" s="3" t="s">
         <v>7543</v>
       </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
       <c r="K404">
         <v>21</v>
       </c>
@@ -39398,6 +40253,9 @@
       <c r="G405" s="3" t="s">
         <v>7563</v>
       </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
       <c r="K405">
         <v>21</v>
       </c>
@@ -39430,6 +40288,9 @@
       <c r="I406" t="s">
         <v>7818</v>
       </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
       <c r="K406">
         <v>21</v>
       </c>
@@ -39462,6 +40323,9 @@
       <c r="F407" t="s">
         <v>6639</v>
       </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
       <c r="K407">
         <v>21</v>
       </c>
@@ -39503,6 +40367,9 @@
       <c r="I408" t="s">
         <v>7816</v>
       </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
       <c r="K408">
         <v>21</v>
       </c>
@@ -39535,6 +40402,9 @@
       <c r="G409" s="3" t="s">
         <v>7076</v>
       </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
       <c r="K409">
         <v>21</v>
       </c>
@@ -39579,6 +40449,9 @@
       <c r="G410" s="3" t="s">
         <v>6751</v>
       </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
       <c r="K410">
         <v>21</v>
       </c>
@@ -39626,6 +40499,9 @@
       <c r="G411" s="3" t="s">
         <v>7230</v>
       </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
       <c r="K411">
         <v>21</v>
       </c>
@@ -39661,6 +40537,9 @@
       <c r="G412" s="3" t="s">
         <v>6786</v>
       </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
       <c r="K412">
         <v>21</v>
       </c>
@@ -39702,6 +40581,9 @@
       <c r="G413" s="3" t="s">
         <v>6799</v>
       </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
       <c r="K413">
         <v>21</v>
       </c>
@@ -39746,6 +40628,9 @@
       <c r="G414" s="3" t="s">
         <v>6869</v>
       </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
       <c r="K414">
         <v>21</v>
       </c>
@@ -39793,6 +40678,9 @@
       <c r="G415" s="3" t="s">
         <v>6870</v>
       </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
       <c r="K415">
         <v>21</v>
       </c>
@@ -39834,6 +40722,9 @@
       <c r="G416" s="3" t="s">
         <v>6900</v>
       </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
       <c r="K416">
         <v>21</v>
       </c>
@@ -39878,6 +40769,9 @@
       <c r="G417" s="3" t="s">
         <v>6904</v>
       </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
       <c r="K417">
         <v>21</v>
       </c>
@@ -39925,6 +40819,9 @@
       <c r="G418" s="3" t="s">
         <v>6964</v>
       </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
       <c r="K418">
         <v>21</v>
       </c>
@@ -39972,6 +40869,9 @@
       <c r="G419" s="3" t="s">
         <v>6977</v>
       </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
       <c r="K419">
         <v>21</v>
       </c>
@@ -40016,6 +40916,9 @@
       <c r="G420" s="3" t="s">
         <v>6981</v>
       </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
       <c r="K420">
         <v>21</v>
       </c>
@@ -40063,6 +40966,9 @@
       <c r="G421" s="3" t="s">
         <v>6995</v>
       </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
       <c r="K421">
         <v>21</v>
       </c>
@@ -40104,6 +41010,9 @@
       <c r="F422" t="s">
         <v>1811</v>
       </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
       <c r="K422">
         <v>21</v>
       </c>
@@ -40139,6 +41048,9 @@
       <c r="F423" t="s">
         <v>1944</v>
       </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
       <c r="K423">
         <v>21</v>
       </c>
@@ -40186,6 +41098,9 @@
       <c r="G424" s="3" t="s">
         <v>7035</v>
       </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
       <c r="K424">
         <v>21</v>
       </c>
@@ -40227,6 +41142,9 @@
       <c r="G425" s="3" t="s">
         <v>7084</v>
       </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
       <c r="K425">
         <v>21</v>
       </c>
@@ -40271,6 +41189,9 @@
       <c r="G426" s="3" t="s">
         <v>7118</v>
       </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
       <c r="K426">
         <v>21</v>
       </c>
@@ -40306,6 +41227,9 @@
       <c r="G427" s="3" t="s">
         <v>7126</v>
       </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
       <c r="K427">
         <v>21</v>
       </c>
@@ -40338,6 +41262,9 @@
       <c r="G428" s="3" t="s">
         <v>7161</v>
       </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
       <c r="K428">
         <v>21</v>
       </c>
@@ -40370,6 +41297,9 @@
       <c r="F429" t="s">
         <v>2758</v>
       </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
       <c r="K429">
         <v>21</v>
       </c>
@@ -40405,6 +41335,9 @@
       <c r="G430" s="3" t="s">
         <v>7175</v>
       </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
       <c r="K430">
         <v>21</v>
       </c>
@@ -40437,6 +41370,9 @@
       <c r="G431" s="3" t="s">
         <v>7185</v>
       </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
       <c r="K431">
         <v>21</v>
       </c>
@@ -40472,6 +41408,9 @@
       <c r="G432" s="3" t="s">
         <v>7225</v>
       </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
       <c r="K432">
         <v>21</v>
       </c>
@@ -40510,6 +41449,9 @@
       <c r="I433" t="s">
         <v>7763</v>
       </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
       <c r="K433">
         <v>21</v>
       </c>
@@ -40542,6 +41484,9 @@
       <c r="F434" t="s">
         <v>3088</v>
       </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
       <c r="K434">
         <v>21</v>
       </c>
@@ -40577,6 +41522,9 @@
       <c r="G435" s="3" t="s">
         <v>7239</v>
       </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
       <c r="K435">
         <v>21</v>
       </c>
@@ -40606,6 +41554,9 @@
       <c r="F436" t="s">
         <v>3381</v>
       </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
       <c r="K436">
         <v>21</v>
       </c>
@@ -40641,6 +41592,9 @@
       <c r="G437" s="3" t="s">
         <v>7276</v>
       </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
       <c r="K437">
         <v>21</v>
       </c>
@@ -40673,6 +41627,9 @@
       <c r="G438" s="3" t="s">
         <v>7279</v>
       </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
       <c r="K438">
         <v>21</v>
       </c>
@@ -40705,6 +41662,9 @@
       <c r="G439" s="3" t="s">
         <v>7431</v>
       </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
       <c r="K439">
         <v>21</v>
       </c>
@@ -40740,6 +41700,9 @@
       <c r="G440" s="3" t="s">
         <v>6735</v>
       </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
       <c r="K440">
         <v>21</v>
       </c>
@@ -40775,6 +41738,9 @@
       <c r="G441" s="3" t="s">
         <v>7492</v>
       </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
       <c r="K441">
         <v>21</v>
       </c>
@@ -40810,6 +41776,9 @@
       <c r="G442" s="3" t="s">
         <v>7496</v>
       </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
       <c r="K442">
         <v>21</v>
       </c>
@@ -40842,6 +41811,9 @@
       <c r="I443" t="s">
         <v>7787</v>
       </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
       <c r="K443">
         <v>21</v>
       </c>
@@ -40877,6 +41849,9 @@
       <c r="G444" s="3" t="s">
         <v>7535</v>
       </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
       <c r="K444">
         <v>21</v>
       </c>
@@ -40909,6 +41884,9 @@
       <c r="G445" s="3" t="s">
         <v>7538</v>
       </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
       <c r="K445">
         <v>21</v>
       </c>
@@ -40944,6 +41922,9 @@
       <c r="G446" s="3" t="s">
         <v>7539</v>
       </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
       <c r="K446">
         <v>21</v>
       </c>
@@ -40976,6 +41957,9 @@
       <c r="G447" s="3" t="s">
         <v>7559</v>
       </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
       <c r="K447">
         <v>21</v>
       </c>
@@ -41008,6 +41992,9 @@
       <c r="G448" s="3" t="s">
         <v>7570</v>
       </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
       <c r="K448">
         <v>21</v>
       </c>
@@ -41040,6 +42027,9 @@
       <c r="G449" s="3" t="s">
         <v>7591</v>
       </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
       <c r="K449">
         <v>21</v>
       </c>
@@ -41075,6 +42065,9 @@
       <c r="G450" s="3" t="s">
         <v>7646</v>
       </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
       <c r="K450">
         <v>21</v>
       </c>
@@ -41107,6 +42100,9 @@
       <c r="G451" s="3" t="s">
         <v>7665</v>
       </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
       <c r="K451">
         <v>21</v>
       </c>
@@ -41139,6 +42135,9 @@
       <c r="F452" t="s">
         <v>5258</v>
       </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
       <c r="K452">
         <v>21</v>
       </c>
@@ -41168,6 +42167,9 @@
       <c r="E453" t="s">
         <v>2361</v>
       </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
       <c r="K453">
         <v>21</v>
       </c>
@@ -41206,6 +42208,9 @@
       <c r="I454" t="s">
         <v>7724</v>
       </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
       <c r="K454">
         <v>21</v>
       </c>
@@ -41253,6 +42258,9 @@
       <c r="G455" s="3" t="s">
         <v>6866</v>
       </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
       <c r="K455">
         <v>21</v>
       </c>
@@ -41300,6 +42308,9 @@
       <c r="G456" s="3" t="s">
         <v>6804</v>
       </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
       <c r="K456">
         <v>21</v>
       </c>
@@ -41347,6 +42358,9 @@
       <c r="H457" t="s">
         <v>7838</v>
       </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
       <c r="K457">
         <v>21</v>
       </c>
@@ -41394,6 +42408,9 @@
       <c r="G458" s="3" t="s">
         <v>6728</v>
       </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
       <c r="K458">
         <v>21</v>
       </c>
@@ -41432,6 +42449,9 @@
       <c r="F459" t="s">
         <v>858</v>
       </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
       <c r="K459">
         <v>21</v>
       </c>
@@ -41476,6 +42496,9 @@
       <c r="G460" s="3" t="s">
         <v>6983</v>
       </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
       <c r="K460">
         <v>21</v>
       </c>
@@ -41523,6 +42546,9 @@
       <c r="G461" s="3" t="s">
         <v>7013</v>
       </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
       <c r="K461">
         <v>21</v>
       </c>
@@ -41564,6 +42590,9 @@
       <c r="G462" s="3" t="s">
         <v>7461</v>
       </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
       <c r="K462">
         <v>21</v>
       </c>
@@ -41596,6 +42625,9 @@
       <c r="G463" s="3" t="s">
         <v>7251</v>
       </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
       <c r="K463">
         <v>21</v>
       </c>
@@ -41631,6 +42663,9 @@
       <c r="G464" s="3" t="s">
         <v>6754</v>
       </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
       <c r="K464">
         <v>5</v>
       </c>
@@ -43363,6 +44398,9 @@
       <c r="G509" s="3" t="s">
         <v>6705</v>
       </c>
+      <c r="J509">
+        <v>0</v>
+      </c>
       <c r="K509">
         <v>11</v>
       </c>
@@ -43401,6 +44439,9 @@
       <c r="F510" t="s">
         <v>339</v>
       </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
       <c r="K510">
         <v>11</v>
       </c>
@@ -43442,6 +44483,9 @@
       <c r="G511" s="3" t="s">
         <v>6815</v>
       </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
       <c r="K511">
         <v>11</v>
       </c>
@@ -43483,6 +44527,9 @@
       <c r="G512" s="3" t="s">
         <v>6873</v>
       </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
       <c r="K512">
         <v>11</v>
       </c>
@@ -43530,6 +44577,9 @@
       <c r="G513" s="3" t="s">
         <v>6885</v>
       </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
       <c r="K513">
         <v>11</v>
       </c>
@@ -43574,6 +44624,9 @@
       <c r="G514" s="3" t="s">
         <v>6891</v>
       </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
       <c r="K514">
         <v>11</v>
       </c>
@@ -43621,6 +44674,9 @@
       <c r="G515" s="3" t="s">
         <v>6894</v>
       </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
       <c r="K515">
         <v>11</v>
       </c>
@@ -43662,6 +44718,9 @@
       <c r="G516" s="3" t="s">
         <v>6908</v>
       </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
       <c r="K516">
         <v>11</v>
       </c>
@@ -43706,6 +44765,9 @@
       <c r="G517" s="3" t="s">
         <v>6941</v>
       </c>
+      <c r="J517">
+        <v>0</v>
+      </c>
       <c r="K517">
         <v>11</v>
       </c>
@@ -43753,6 +44815,9 @@
       <c r="G518" s="3" t="s">
         <v>6996</v>
       </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
       <c r="K518">
         <v>11</v>
       </c>
@@ -43794,6 +44859,9 @@
       <c r="G519" s="3" t="s">
         <v>7052</v>
       </c>
+      <c r="J519">
+        <v>0</v>
+      </c>
       <c r="K519">
         <v>11</v>
       </c>
@@ -43838,6 +44906,9 @@
       <c r="G520" s="3" t="s">
         <v>7057</v>
       </c>
+      <c r="J520">
+        <v>0</v>
+      </c>
       <c r="K520">
         <v>11</v>
       </c>
@@ -43882,6 +44953,9 @@
       <c r="G521" s="3" t="s">
         <v>7067</v>
       </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
       <c r="K521">
         <v>11</v>
       </c>
@@ -43926,6 +45000,9 @@
       <c r="G522" s="3" t="s">
         <v>7082</v>
       </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
       <c r="K522">
         <v>11</v>
       </c>
@@ -43973,6 +45050,9 @@
       <c r="G523" s="3" t="s">
         <v>7092</v>
       </c>
+      <c r="J523">
+        <v>0</v>
+      </c>
       <c r="K523">
         <v>11</v>
       </c>
@@ -44017,6 +45097,9 @@
       <c r="G524" s="3" t="s">
         <v>7141</v>
       </c>
+      <c r="J524">
+        <v>0</v>
+      </c>
       <c r="K524">
         <v>11</v>
       </c>
@@ -44049,6 +45132,9 @@
       <c r="G525" s="3" t="s">
         <v>7188</v>
       </c>
+      <c r="J525">
+        <v>0</v>
+      </c>
       <c r="K525">
         <v>11</v>
       </c>
@@ -44078,6 +45164,9 @@
       <c r="F526" t="s">
         <v>3068</v>
       </c>
+      <c r="J526">
+        <v>0</v>
+      </c>
       <c r="K526">
         <v>11</v>
       </c>
@@ -44113,6 +45202,9 @@
       <c r="G527" s="3" t="s">
         <v>7233</v>
       </c>
+      <c r="J527">
+        <v>0</v>
+      </c>
       <c r="K527">
         <v>11</v>
       </c>
@@ -44142,6 +45234,9 @@
       <c r="F528" t="s">
         <v>3211</v>
       </c>
+      <c r="J528">
+        <v>0</v>
+      </c>
       <c r="K528">
         <v>11</v>
       </c>
@@ -44177,6 +45272,9 @@
       <c r="G529" s="3" t="s">
         <v>7257</v>
       </c>
+      <c r="J529">
+        <v>0</v>
+      </c>
       <c r="K529">
         <v>11</v>
       </c>
@@ -44209,6 +45307,9 @@
       <c r="F530" t="s">
         <v>3301</v>
       </c>
+      <c r="J530">
+        <v>0</v>
+      </c>
       <c r="K530">
         <v>11</v>
       </c>
@@ -44244,6 +45345,9 @@
       <c r="G531" s="3" t="s">
         <v>7271</v>
       </c>
+      <c r="J531">
+        <v>0</v>
+      </c>
       <c r="K531">
         <v>11</v>
       </c>
@@ -44276,6 +45380,9 @@
       <c r="G532" s="3" t="s">
         <v>7274</v>
       </c>
+      <c r="J532">
+        <v>0</v>
+      </c>
       <c r="K532">
         <v>11</v>
       </c>
@@ -44305,6 +45412,9 @@
       <c r="F533" t="s">
         <v>3428</v>
       </c>
+      <c r="J533">
+        <v>0</v>
+      </c>
       <c r="K533">
         <v>11</v>
       </c>
@@ -44337,6 +45447,9 @@
       <c r="G534" s="3" t="s">
         <v>7324</v>
       </c>
+      <c r="J534">
+        <v>0</v>
+      </c>
       <c r="K534">
         <v>11</v>
       </c>
@@ -44366,6 +45479,9 @@
       <c r="F535" t="s">
         <v>3948</v>
       </c>
+      <c r="J535">
+        <v>0</v>
+      </c>
       <c r="K535">
         <v>11</v>
       </c>
@@ -44398,6 +45514,9 @@
       <c r="G536" s="3" t="s">
         <v>7340</v>
       </c>
+      <c r="J536">
+        <v>0</v>
+      </c>
       <c r="K536">
         <v>11</v>
       </c>
@@ -44433,6 +45552,9 @@
       <c r="G537" s="3" t="s">
         <v>7411</v>
       </c>
+      <c r="J537">
+        <v>0</v>
+      </c>
       <c r="K537">
         <v>11</v>
       </c>
@@ -44468,6 +45590,9 @@
       <c r="G538" s="3" t="s">
         <v>7457</v>
       </c>
+      <c r="J538">
+        <v>0</v>
+      </c>
       <c r="K538">
         <v>11</v>
       </c>
@@ -44500,6 +45625,9 @@
       <c r="G539" s="3" t="s">
         <v>7472</v>
       </c>
+      <c r="J539">
+        <v>0</v>
+      </c>
       <c r="K539">
         <v>11</v>
       </c>
@@ -44532,6 +45660,9 @@
       <c r="G540" s="3" t="s">
         <v>7487</v>
       </c>
+      <c r="J540">
+        <v>0</v>
+      </c>
       <c r="K540">
         <v>11</v>
       </c>
@@ -44564,6 +45695,9 @@
       <c r="G541" s="3" t="s">
         <v>7488</v>
       </c>
+      <c r="J541">
+        <v>0</v>
+      </c>
       <c r="K541">
         <v>11</v>
       </c>
@@ -44599,6 +45733,9 @@
       <c r="G542" s="3" t="s">
         <v>7506</v>
       </c>
+      <c r="J542">
+        <v>0</v>
+      </c>
       <c r="K542">
         <v>11</v>
       </c>
@@ -44634,6 +45771,9 @@
       <c r="G543" s="3" t="s">
         <v>7525</v>
       </c>
+      <c r="J543">
+        <v>0</v>
+      </c>
       <c r="K543">
         <v>11</v>
       </c>
@@ -44663,6 +45803,9 @@
       <c r="F544" t="s">
         <v>5237</v>
       </c>
+      <c r="J544">
+        <v>0</v>
+      </c>
       <c r="K544">
         <v>11</v>
       </c>
@@ -44698,6 +45841,9 @@
       <c r="G545" s="3" t="s">
         <v>7409</v>
       </c>
+      <c r="J545">
+        <v>0</v>
+      </c>
       <c r="K545">
         <v>11</v>
       </c>
@@ -44733,6 +45879,9 @@
       <c r="G546" s="3" t="s">
         <v>7604</v>
       </c>
+      <c r="J546">
+        <v>0</v>
+      </c>
       <c r="K546">
         <v>11</v>
       </c>
@@ -44765,6 +45914,9 @@
       <c r="G547" s="3" t="s">
         <v>7630</v>
       </c>
+      <c r="J547">
+        <v>0</v>
+      </c>
       <c r="K547">
         <v>11</v>
       </c>
@@ -44797,6 +45949,9 @@
       <c r="F548" t="s">
         <v>6120</v>
       </c>
+      <c r="J548">
+        <v>0</v>
+      </c>
       <c r="K548">
         <v>11</v>
       </c>
@@ -44832,6 +45987,9 @@
       <c r="G549" s="3" t="s">
         <v>6780</v>
       </c>
+      <c r="J549">
+        <v>0</v>
+      </c>
       <c r="K549">
         <v>11</v>
       </c>
@@ -44879,6 +46037,9 @@
       <c r="G550" s="3" t="s">
         <v>7331</v>
       </c>
+      <c r="J550">
+        <v>0</v>
+      </c>
       <c r="K550">
         <v>11</v>
       </c>
@@ -44911,6 +46072,9 @@
       <c r="F551" t="s">
         <v>6532</v>
       </c>
+      <c r="J551">
+        <v>0</v>
+      </c>
       <c r="K551">
         <v>11</v>
       </c>
@@ -44946,6 +46110,9 @@
       <c r="G552" s="3" t="s">
         <v>7050</v>
       </c>
+      <c r="J552">
+        <v>0</v>
+      </c>
       <c r="K552">
         <v>11</v>
       </c>
@@ -44993,6 +46160,9 @@
       <c r="G553" s="3" t="s">
         <v>6808</v>
       </c>
+      <c r="J553">
+        <v>0</v>
+      </c>
       <c r="K553">
         <v>11</v>
       </c>
@@ -45031,6 +46201,9 @@
       <c r="F554" t="s">
         <v>4783</v>
       </c>
+      <c r="J554">
+        <v>0</v>
+      </c>
       <c r="K554">
         <v>11</v>
       </c>
@@ -45063,6 +46236,9 @@
       <c r="G555" s="3" t="s">
         <v>6719</v>
       </c>
+      <c r="J555">
+        <v>0</v>
+      </c>
       <c r="K555">
         <v>11</v>
       </c>
@@ -45104,6 +46280,9 @@
       <c r="F556" t="s">
         <v>4956</v>
       </c>
+      <c r="J556">
+        <v>0</v>
+      </c>
       <c r="K556">
         <v>11</v>
       </c>
@@ -45136,6 +46315,9 @@
       <c r="G557" s="3" t="s">
         <v>7548</v>
       </c>
+      <c r="J557">
+        <v>0</v>
+      </c>
       <c r="K557">
         <v>11</v>
       </c>
@@ -45171,6 +46353,9 @@
       <c r="G558" s="3" t="s">
         <v>7564</v>
       </c>
+      <c r="J558">
+        <v>0</v>
+      </c>
       <c r="K558">
         <v>11</v>
       </c>
@@ -45206,6 +46391,9 @@
       <c r="G559" s="3" t="s">
         <v>7059</v>
       </c>
+      <c r="J559">
+        <v>0</v>
+      </c>
       <c r="K559">
         <v>11</v>
       </c>
@@ -45250,6 +46438,9 @@
       <c r="G560" s="3" t="s">
         <v>7656</v>
       </c>
+      <c r="J560">
+        <v>0</v>
+      </c>
       <c r="K560">
         <v>11</v>
       </c>
@@ -45282,6 +46473,9 @@
       <c r="G561" s="3" t="s">
         <v>7442</v>
       </c>
+      <c r="J561">
+        <v>0</v>
+      </c>
       <c r="K561">
         <v>11</v>
       </c>
@@ -45317,6 +46511,9 @@
       <c r="G562" s="3" t="s">
         <v>6781</v>
       </c>
+      <c r="J562">
+        <v>0</v>
+      </c>
       <c r="K562">
         <v>11</v>
       </c>
@@ -45361,6 +46558,9 @@
       <c r="G563" s="3" t="s">
         <v>6716</v>
       </c>
+      <c r="J563">
+        <v>0</v>
+      </c>
       <c r="K563">
         <v>11</v>
       </c>
@@ -45402,6 +46602,9 @@
       <c r="G564" s="3" t="s">
         <v>7291</v>
       </c>
+      <c r="J564">
+        <v>0</v>
+      </c>
       <c r="K564">
         <v>11</v>
       </c>
@@ -45434,6 +46637,9 @@
       <c r="G565" s="3" t="s">
         <v>6907</v>
       </c>
+      <c r="J565">
+        <v>0</v>
+      </c>
       <c r="K565">
         <v>11</v>
       </c>
@@ -45475,6 +46681,9 @@
       <c r="F566" t="s">
         <v>2326</v>
       </c>
+      <c r="J566">
+        <v>0</v>
+      </c>
       <c r="K566">
         <v>11</v>
       </c>
@@ -45513,6 +46722,9 @@
       <c r="G567" s="3" t="s">
         <v>7176</v>
       </c>
+      <c r="J567">
+        <v>0</v>
+      </c>
       <c r="K567">
         <v>11</v>
       </c>
@@ -48443,6 +49655,9 @@
       <c r="G642" s="3" t="s">
         <v>6735</v>
       </c>
+      <c r="J642">
+        <v>0</v>
+      </c>
       <c r="K642">
         <v>52</v>
       </c>
@@ -48484,6 +49699,9 @@
       <c r="F643" t="s">
         <v>837</v>
       </c>
+      <c r="J643">
+        <v>0</v>
+      </c>
       <c r="K643">
         <v>52</v>
       </c>
@@ -48531,6 +49749,9 @@
       <c r="G644" s="3" t="s">
         <v>6990</v>
       </c>
+      <c r="J644">
+        <v>0</v>
+      </c>
       <c r="K644">
         <v>52</v>
       </c>
@@ -48578,6 +49799,9 @@
       <c r="G645" s="3" t="s">
         <v>7031</v>
       </c>
+      <c r="J645">
+        <v>0</v>
+      </c>
       <c r="K645">
         <v>52</v>
       </c>
@@ -48625,6 +49849,9 @@
       <c r="G646" s="3" t="s">
         <v>7098</v>
       </c>
+      <c r="J646">
+        <v>0</v>
+      </c>
       <c r="K646">
         <v>52</v>
       </c>
@@ -48660,6 +49887,9 @@
       <c r="G647" s="3" t="s">
         <v>7187</v>
       </c>
+      <c r="J647">
+        <v>0</v>
+      </c>
       <c r="K647">
         <v>52</v>
       </c>
@@ -48695,6 +49925,9 @@
       <c r="G648" s="3" t="s">
         <v>7259</v>
       </c>
+      <c r="J648">
+        <v>0</v>
+      </c>
       <c r="K648">
         <v>52</v>
       </c>
@@ -48730,6 +49963,9 @@
       <c r="G649" s="3" t="s">
         <v>7395</v>
       </c>
+      <c r="J649">
+        <v>0</v>
+      </c>
       <c r="K649">
         <v>52</v>
       </c>
@@ -48765,6 +50001,9 @@
       <c r="G650" s="3" t="s">
         <v>7497</v>
       </c>
+      <c r="J650">
+        <v>0</v>
+      </c>
       <c r="K650">
         <v>52</v>
       </c>
@@ -48800,6 +50039,9 @@
       <c r="G651" s="3" t="s">
         <v>7124</v>
       </c>
+      <c r="J651">
+        <v>0</v>
+      </c>
       <c r="K651">
         <v>52</v>
       </c>
@@ -50896,6 +52138,9 @@
       <c r="G704" s="3" t="s">
         <v>6839</v>
       </c>
+      <c r="J704">
+        <v>0</v>
+      </c>
       <c r="K704">
         <v>36</v>
       </c>
@@ -50943,6 +52188,9 @@
       <c r="G705" s="3" t="s">
         <v>6851</v>
       </c>
+      <c r="J705">
+        <v>0</v>
+      </c>
       <c r="K705">
         <v>36</v>
       </c>
@@ -50990,6 +52238,9 @@
       <c r="H706" t="s">
         <v>7849</v>
       </c>
+      <c r="J706">
+        <v>0</v>
+      </c>
       <c r="K706">
         <v>36</v>
       </c>
@@ -51037,6 +52288,9 @@
       <c r="G707" s="3" t="s">
         <v>7105</v>
       </c>
+      <c r="J707">
+        <v>0</v>
+      </c>
       <c r="K707">
         <v>36</v>
       </c>
@@ -51072,6 +52326,9 @@
       <c r="G708" s="3" t="s">
         <v>7112</v>
       </c>
+      <c r="J708">
+        <v>0</v>
+      </c>
       <c r="K708">
         <v>36</v>
       </c>
@@ -51104,6 +52361,9 @@
       <c r="G709" s="3" t="s">
         <v>7119</v>
       </c>
+      <c r="J709">
+        <v>0</v>
+      </c>
       <c r="K709">
         <v>36</v>
       </c>
@@ -51139,6 +52399,9 @@
       <c r="G710" s="3" t="s">
         <v>7182</v>
       </c>
+      <c r="J710">
+        <v>0</v>
+      </c>
       <c r="K710">
         <v>36</v>
       </c>
@@ -51168,6 +52431,9 @@
       <c r="F711" t="s">
         <v>3185</v>
       </c>
+      <c r="J711">
+        <v>0</v>
+      </c>
       <c r="K711">
         <v>36</v>
       </c>
@@ -51200,6 +52466,9 @@
       <c r="G712" s="3" t="s">
         <v>7247</v>
       </c>
+      <c r="J712">
+        <v>0</v>
+      </c>
       <c r="K712">
         <v>36</v>
       </c>
@@ -51235,6 +52504,9 @@
       <c r="G713" s="3" t="s">
         <v>7320</v>
       </c>
+      <c r="J713">
+        <v>0</v>
+      </c>
       <c r="K713">
         <v>36</v>
       </c>
@@ -51267,6 +52539,9 @@
       <c r="G714" s="3" t="s">
         <v>7385</v>
       </c>
+      <c r="J714">
+        <v>0</v>
+      </c>
       <c r="K714">
         <v>36</v>
       </c>
@@ -51296,6 +52571,9 @@
       <c r="F715" t="s">
         <v>4376</v>
       </c>
+      <c r="J715">
+        <v>0</v>
+      </c>
       <c r="K715">
         <v>36</v>
       </c>
@@ -51328,6 +52606,9 @@
       <c r="G716" s="3" t="s">
         <v>7434</v>
       </c>
+      <c r="J716">
+        <v>0</v>
+      </c>
       <c r="K716">
         <v>36</v>
       </c>
@@ -51360,6 +52641,9 @@
       <c r="I717" t="s">
         <v>7783</v>
       </c>
+      <c r="J717">
+        <v>0</v>
+      </c>
       <c r="K717">
         <v>36</v>
       </c>
@@ -51389,6 +52673,9 @@
       <c r="F718" t="s">
         <v>5584</v>
       </c>
+      <c r="J718">
+        <v>0</v>
+      </c>
       <c r="K718">
         <v>36</v>
       </c>
@@ -51421,6 +52708,9 @@
       <c r="G719" s="3" t="s">
         <v>7683</v>
       </c>
+      <c r="J719">
+        <v>0</v>
+      </c>
       <c r="K719">
         <v>36</v>
       </c>
@@ -51456,6 +52746,9 @@
       <c r="I720" t="s">
         <v>7809</v>
       </c>
+      <c r="J720">
+        <v>0</v>
+      </c>
       <c r="K720">
         <v>36</v>
       </c>
@@ -51488,6 +52781,9 @@
       <c r="G721" s="3" t="s">
         <v>7714</v>
       </c>
+      <c r="J721">
+        <v>0</v>
+      </c>
       <c r="K721">
         <v>36</v>
       </c>
@@ -51523,6 +52819,9 @@
       <c r="G722" s="3" t="s">
         <v>7381</v>
       </c>
+      <c r="J722">
+        <v>0</v>
+      </c>
       <c r="K722">
         <v>36</v>
       </c>
@@ -51558,6 +52857,9 @@
       <c r="G723" s="3" t="s">
         <v>7110</v>
       </c>
+      <c r="J723">
+        <v>0</v>
+      </c>
       <c r="K723">
         <v>36</v>
       </c>
@@ -51590,6 +52892,9 @@
       <c r="F724" t="s">
         <v>200</v>
       </c>
+      <c r="J724">
+        <v>0</v>
+      </c>
       <c r="K724">
         <v>36</v>
       </c>
@@ -51631,6 +52936,9 @@
       <c r="G725" s="3" t="s">
         <v>7144</v>
       </c>
+      <c r="J725">
+        <v>0</v>
+      </c>
       <c r="K725">
         <v>36</v>
       </c>
@@ -51666,6 +52974,9 @@
       <c r="G726" s="3" t="s">
         <v>6918</v>
       </c>
+      <c r="J726">
+        <v>0</v>
+      </c>
       <c r="K726">
         <v>24</v>
       </c>
@@ -51713,6 +53024,9 @@
       <c r="G727" s="3" t="s">
         <v>7128</v>
       </c>
+      <c r="J727">
+        <v>0</v>
+      </c>
       <c r="K727">
         <v>24</v>
       </c>
@@ -51748,6 +53062,9 @@
       <c r="G728" s="3" t="s">
         <v>7611</v>
       </c>
+      <c r="J728">
+        <v>0</v>
+      </c>
       <c r="K728">
         <v>24</v>
       </c>
@@ -51780,6 +53097,9 @@
       <c r="G729" s="3" t="s">
         <v>6718</v>
       </c>
+      <c r="J729">
+        <v>0</v>
+      </c>
       <c r="K729">
         <v>23</v>
       </c>
@@ -52222,6 +53542,9 @@
       <c r="G740" s="3" t="s">
         <v>7054</v>
       </c>
+      <c r="J740">
+        <v>0</v>
+      </c>
       <c r="K740">
         <v>30</v>
       </c>
@@ -52269,6 +53592,9 @@
       <c r="G741" s="3" t="s">
         <v>7208</v>
       </c>
+      <c r="J741">
+        <v>0</v>
+      </c>
       <c r="K741">
         <v>30</v>
       </c>
@@ -52304,6 +53630,9 @@
       <c r="G742" s="3" t="s">
         <v>7622</v>
       </c>
+      <c r="J742">
+        <v>0</v>
+      </c>
       <c r="K742">
         <v>30</v>
       </c>
@@ -52339,6 +53668,9 @@
       <c r="G743" s="3" t="s">
         <v>7504</v>
       </c>
+      <c r="J743">
+        <v>0</v>
+      </c>
       <c r="K743">
         <v>30</v>
       </c>
@@ -52371,6 +53703,9 @@
       <c r="G744" s="3" t="s">
         <v>6897</v>
       </c>
+      <c r="J744">
+        <v>0</v>
+      </c>
       <c r="K744">
         <v>30</v>
       </c>
@@ -52418,6 +53753,9 @@
       <c r="G745" s="3" t="s">
         <v>6965</v>
       </c>
+      <c r="J745">
+        <v>0</v>
+      </c>
       <c r="K745">
         <v>30</v>
       </c>
@@ -52462,6 +53800,9 @@
       <c r="G746" s="3" t="s">
         <v>7120</v>
       </c>
+      <c r="J746">
+        <v>0</v>
+      </c>
       <c r="K746">
         <v>30</v>
       </c>
@@ -52494,6 +53835,9 @@
       <c r="G747" s="3" t="s">
         <v>7426</v>
       </c>
+      <c r="J747">
+        <v>0</v>
+      </c>
       <c r="K747">
         <v>30</v>
       </c>
@@ -52529,6 +53873,9 @@
       <c r="G748" s="3" t="s">
         <v>6844</v>
       </c>
+      <c r="J748">
+        <v>0</v>
+      </c>
       <c r="K748">
         <v>30</v>
       </c>
@@ -52567,6 +53914,9 @@
       <c r="F749" t="s">
         <v>70</v>
       </c>
+      <c r="J749">
+        <v>0</v>
+      </c>
       <c r="K749">
         <v>30</v>
       </c>
@@ -52617,6 +53967,9 @@
       <c r="H750" t="s">
         <v>7840</v>
       </c>
+      <c r="J750">
+        <v>0</v>
+      </c>
       <c r="K750">
         <v>30</v>
       </c>
@@ -52661,6 +54014,9 @@
       <c r="G751" s="3" t="s">
         <v>7077</v>
       </c>
+      <c r="J751">
+        <v>0</v>
+      </c>
       <c r="K751">
         <v>30</v>
       </c>
@@ -52702,6 +54058,9 @@
       <c r="G752" s="3" t="s">
         <v>7124</v>
       </c>
+      <c r="J752">
+        <v>0</v>
+      </c>
       <c r="K752">
         <v>30</v>
       </c>
@@ -52734,6 +54093,9 @@
       <c r="G753" s="3" t="s">
         <v>7454</v>
       </c>
+      <c r="J753">
+        <v>0</v>
+      </c>
       <c r="K753">
         <v>30</v>
       </c>
@@ -52763,6 +54125,9 @@
       <c r="F754" t="s">
         <v>5067</v>
       </c>
+      <c r="J754">
+        <v>0</v>
+      </c>
       <c r="K754">
         <v>30</v>
       </c>
@@ -52795,6 +54160,9 @@
       <c r="G755" s="3" t="s">
         <v>7647</v>
       </c>
+      <c r="J755">
+        <v>0</v>
+      </c>
       <c r="K755">
         <v>30</v>
       </c>
@@ -52827,6 +54195,9 @@
       <c r="F756" t="s">
         <v>3243</v>
       </c>
+      <c r="J756">
+        <v>0</v>
+      </c>
       <c r="K756">
         <v>30</v>
       </c>
@@ -52862,6 +54233,9 @@
       <c r="G757" s="3" t="s">
         <v>7334</v>
       </c>
+      <c r="J757">
+        <v>0</v>
+      </c>
       <c r="K757">
         <v>30</v>
       </c>
@@ -53724,6 +55098,9 @@
       <c r="F780" t="s">
         <v>261</v>
       </c>
+      <c r="J780">
+        <v>0</v>
+      </c>
       <c r="K780">
         <v>56</v>
       </c>
@@ -53768,6 +55145,9 @@
       <c r="G781" s="3" t="s">
         <v>6753</v>
       </c>
+      <c r="J781">
+        <v>0</v>
+      </c>
       <c r="K781">
         <v>56</v>
       </c>
@@ -53812,6 +55192,9 @@
       <c r="H782" t="s">
         <v>7845</v>
       </c>
+      <c r="J782">
+        <v>0</v>
+      </c>
       <c r="K782">
         <v>56</v>
       </c>
@@ -53853,6 +55236,9 @@
       <c r="G783" s="3" t="s">
         <v>7047</v>
       </c>
+      <c r="J783">
+        <v>0</v>
+      </c>
       <c r="K783">
         <v>56</v>
       </c>
@@ -53900,6 +55286,9 @@
       <c r="G784" s="3" t="s">
         <v>7258</v>
       </c>
+      <c r="J784">
+        <v>0</v>
+      </c>
       <c r="K784">
         <v>56</v>
       </c>
@@ -53935,6 +55324,9 @@
       <c r="G785" s="3" t="s">
         <v>7330</v>
       </c>
+      <c r="J785">
+        <v>0</v>
+      </c>
       <c r="K785">
         <v>56</v>
       </c>
@@ -53970,6 +55362,9 @@
       <c r="G786" s="3" t="s">
         <v>7511</v>
       </c>
+      <c r="J786">
+        <v>0</v>
+      </c>
       <c r="K786">
         <v>56</v>
       </c>
@@ -54002,6 +55397,9 @@
       <c r="G787" s="3" t="s">
         <v>7582</v>
       </c>
+      <c r="J787">
+        <v>0</v>
+      </c>
       <c r="K787">
         <v>56</v>
       </c>
@@ -54031,6 +55429,9 @@
       <c r="F788" t="s">
         <v>5503</v>
       </c>
+      <c r="J788">
+        <v>0</v>
+      </c>
       <c r="K788">
         <v>56</v>
       </c>
@@ -54063,6 +55464,9 @@
       <c r="G789" s="3" t="s">
         <v>7664</v>
       </c>
+      <c r="J789">
+        <v>0</v>
+      </c>
       <c r="K789">
         <v>56</v>
       </c>
@@ -54095,6 +55499,9 @@
       <c r="F790" t="s">
         <v>5662</v>
       </c>
+      <c r="J790">
+        <v>0</v>
+      </c>
       <c r="K790">
         <v>56</v>
       </c>
@@ -55489,6 +56896,9 @@
       <c r="G825" s="3" t="s">
         <v>6989</v>
       </c>
+      <c r="J825">
+        <v>0</v>
+      </c>
       <c r="K825">
         <v>4</v>
       </c>
@@ -55539,6 +56949,9 @@
       <c r="I826" t="s">
         <v>7749</v>
       </c>
+      <c r="J826">
+        <v>0</v>
+      </c>
       <c r="K826">
         <v>4</v>
       </c>
@@ -55583,6 +56996,9 @@
       <c r="G827" s="3" t="s">
         <v>7299</v>
       </c>
+      <c r="J827">
+        <v>0</v>
+      </c>
       <c r="K827">
         <v>4</v>
       </c>
@@ -55618,6 +57034,9 @@
       <c r="G828" s="3" t="s">
         <v>7419</v>
       </c>
+      <c r="J828">
+        <v>0</v>
+      </c>
       <c r="K828">
         <v>4</v>
       </c>
@@ -58521,6 +59940,9 @@
       <c r="I900" t="s">
         <v>7745</v>
       </c>
+      <c r="J900">
+        <v>0</v>
+      </c>
       <c r="K900">
         <v>2</v>
       </c>
@@ -58568,6 +59990,9 @@
       <c r="G901" s="3" t="s">
         <v>7223</v>
       </c>
+      <c r="J901">
+        <v>0</v>
+      </c>
       <c r="K901">
         <v>2</v>
       </c>
@@ -58600,6 +60025,9 @@
       <c r="G902" s="3" t="s">
         <v>7468</v>
       </c>
+      <c r="J902">
+        <v>0</v>
+      </c>
       <c r="K902">
         <v>2</v>
       </c>
@@ -58632,6 +60060,9 @@
       <c r="F903" t="s">
         <v>6052</v>
       </c>
+      <c r="J903">
+        <v>0</v>
+      </c>
       <c r="K903">
         <v>2</v>
       </c>
@@ -58661,6 +60092,9 @@
       <c r="F904" t="s">
         <v>6180</v>
       </c>
+      <c r="J904">
+        <v>0</v>
+      </c>
       <c r="K904">
         <v>2</v>
       </c>
@@ -58696,6 +60130,9 @@
       <c r="G905" s="3" t="s">
         <v>7547</v>
       </c>
+      <c r="J905">
+        <v>0</v>
+      </c>
       <c r="K905">
         <v>2</v>
       </c>
@@ -58731,6 +60168,9 @@
       <c r="G906" s="3" t="s">
         <v>7364</v>
       </c>
+      <c r="J906">
+        <v>0</v>
+      </c>
       <c r="K906">
         <v>2</v>
       </c>
@@ -58766,6 +60206,9 @@
       <c r="G907" s="3" t="s">
         <v>7285</v>
       </c>
+      <c r="J907">
+        <v>0</v>
+      </c>
       <c r="K907">
         <v>2</v>
       </c>
@@ -58798,6 +60241,9 @@
       <c r="F908" t="s">
         <v>1085</v>
       </c>
+      <c r="J908">
+        <v>0</v>
+      </c>
       <c r="K908">
         <v>70</v>
       </c>
@@ -58833,6 +60279,9 @@
       <c r="F909" t="s">
         <v>5746</v>
       </c>
+      <c r="J909">
+        <v>0</v>
+      </c>
       <c r="K909">
         <v>70</v>
       </c>
@@ -60932,6 +62381,9 @@
       <c r="F964" t="s">
         <v>1478</v>
       </c>
+      <c r="J964">
+        <v>0</v>
+      </c>
       <c r="K964">
         <v>26</v>
       </c>
@@ -60976,6 +62428,9 @@
       <c r="G965" s="3" t="s">
         <v>6999</v>
       </c>
+      <c r="J965">
+        <v>0</v>
+      </c>
       <c r="K965">
         <v>26</v>
       </c>
@@ -61017,6 +62472,9 @@
       <c r="G966" s="3" t="s">
         <v>7061</v>
       </c>
+      <c r="J966">
+        <v>0</v>
+      </c>
       <c r="K966">
         <v>26</v>
       </c>
@@ -61061,6 +62519,9 @@
       <c r="G967" s="3" t="s">
         <v>7079</v>
       </c>
+      <c r="J967">
+        <v>0</v>
+      </c>
       <c r="K967">
         <v>26</v>
       </c>
@@ -61105,6 +62566,9 @@
       <c r="G968" s="3" t="s">
         <v>7143</v>
       </c>
+      <c r="J968">
+        <v>0</v>
+      </c>
       <c r="K968">
         <v>26</v>
       </c>
@@ -61137,6 +62601,9 @@
       <c r="F969" t="s">
         <v>2776</v>
       </c>
+      <c r="J969">
+        <v>0</v>
+      </c>
       <c r="K969">
         <v>26</v>
       </c>
@@ -61169,6 +62636,9 @@
       <c r="G970" s="3" t="s">
         <v>7242</v>
       </c>
+      <c r="J970">
+        <v>0</v>
+      </c>
       <c r="K970">
         <v>26</v>
       </c>
@@ -61204,6 +62674,9 @@
       <c r="G971" s="3" t="s">
         <v>7328</v>
       </c>
+      <c r="J971">
+        <v>0</v>
+      </c>
       <c r="K971">
         <v>26</v>
       </c>
@@ -61239,6 +62712,9 @@
       <c r="G972" s="3" t="s">
         <v>7359</v>
       </c>
+      <c r="J972">
+        <v>0</v>
+      </c>
       <c r="K972">
         <v>26</v>
       </c>
@@ -61274,6 +62750,9 @@
       <c r="I973" t="s">
         <v>7773</v>
       </c>
+      <c r="J973">
+        <v>0</v>
+      </c>
       <c r="K973">
         <v>26</v>
       </c>
@@ -61306,6 +62785,9 @@
       <c r="G974" s="3" t="s">
         <v>7456</v>
       </c>
+      <c r="J974">
+        <v>0</v>
+      </c>
       <c r="K974">
         <v>26</v>
       </c>
@@ -61338,6 +62820,9 @@
       <c r="F975" t="s">
         <v>4599</v>
       </c>
+      <c r="J975">
+        <v>0</v>
+      </c>
       <c r="K975">
         <v>26</v>
       </c>
@@ -61370,6 +62855,9 @@
       <c r="G976" s="3" t="s">
         <v>7573</v>
       </c>
+      <c r="J976">
+        <v>0</v>
+      </c>
       <c r="K976">
         <v>26</v>
       </c>
@@ -61405,6 +62893,9 @@
       <c r="G977" s="3" t="s">
         <v>7679</v>
       </c>
+      <c r="J977">
+        <v>0</v>
+      </c>
       <c r="K977">
         <v>26</v>
       </c>
@@ -61440,6 +62931,9 @@
       <c r="G978" s="3" t="s">
         <v>7284</v>
       </c>
+      <c r="J978">
+        <v>0</v>
+      </c>
       <c r="K978">
         <v>26</v>
       </c>
@@ -61472,6 +62966,9 @@
       <c r="G979" s="3" t="s">
         <v>6915</v>
       </c>
+      <c r="J979">
+        <v>0</v>
+      </c>
       <c r="K979">
         <v>26</v>
       </c>
@@ -62325,6 +63822,9 @@
       <c r="G1001" s="3" t="s">
         <v>6717</v>
       </c>
+      <c r="J1001">
+        <v>0</v>
+      </c>
       <c r="K1001">
         <v>39</v>
       </c>
@@ -62363,6 +63863,9 @@
       <c r="F1002" t="s">
         <v>1797</v>
       </c>
+      <c r="J1002">
+        <v>0</v>
+      </c>
       <c r="K1002">
         <v>39</v>
       </c>
@@ -62410,6 +63913,9 @@
       <c r="G1003" s="3" t="s">
         <v>7003</v>
       </c>
+      <c r="J1003">
+        <v>0</v>
+      </c>
       <c r="K1003">
         <v>39</v>
       </c>
@@ -62454,6 +63960,9 @@
       <c r="G1004" s="3" t="s">
         <v>7145</v>
       </c>
+      <c r="J1004">
+        <v>0</v>
+      </c>
       <c r="K1004">
         <v>39</v>
       </c>
@@ -62489,6 +63998,9 @@
       <c r="H1005" t="s">
         <v>7861</v>
       </c>
+      <c r="J1005">
+        <v>0</v>
+      </c>
       <c r="K1005">
         <v>39</v>
       </c>
@@ -62521,6 +64033,9 @@
       <c r="G1006" s="3" t="s">
         <v>7406</v>
       </c>
+      <c r="J1006">
+        <v>0</v>
+      </c>
       <c r="K1006">
         <v>39</v>
       </c>
@@ -62550,6 +64065,9 @@
       <c r="F1007" t="s">
         <v>5889</v>
       </c>
+      <c r="J1007">
+        <v>0</v>
+      </c>
       <c r="K1007">
         <v>39</v>
       </c>
@@ -62588,6 +64106,9 @@
       <c r="H1008" t="s">
         <v>7893</v>
       </c>
+      <c r="J1008">
+        <v>0</v>
+      </c>
       <c r="K1008">
         <v>39</v>
       </c>
@@ -62620,6 +64141,9 @@
       <c r="G1009" s="3" t="s">
         <v>6970</v>
       </c>
+      <c r="J1009">
+        <v>0</v>
+      </c>
       <c r="K1009">
         <v>39</v>
       </c>
@@ -62667,6 +64191,9 @@
       <c r="G1010" s="3" t="s">
         <v>7643</v>
       </c>
+      <c r="J1010">
+        <v>0</v>
+      </c>
       <c r="K1010">
         <v>39</v>
       </c>
@@ -62699,6 +64226,9 @@
       <c r="G1011" s="3" t="s">
         <v>6933</v>
       </c>
+      <c r="J1011">
+        <v>0</v>
+      </c>
       <c r="K1011">
         <v>39</v>
       </c>
@@ -62746,6 +64276,9 @@
       <c r="G1012" s="3" t="s">
         <v>7204</v>
       </c>
+      <c r="J1012">
+        <v>0</v>
+      </c>
       <c r="K1012">
         <v>11</v>
       </c>
@@ -62778,6 +64311,9 @@
       <c r="F1013" t="s">
         <v>4622</v>
       </c>
+      <c r="J1013">
+        <v>0</v>
+      </c>
       <c r="K1013">
         <v>11</v>
       </c>
@@ -62810,6 +64346,9 @@
       <c r="G1014" s="3" t="s">
         <v>7131</v>
       </c>
+      <c r="J1014">
+        <v>0</v>
+      </c>
       <c r="K1014">
         <v>11</v>
       </c>
@@ -62845,6 +64384,9 @@
       <c r="I1015" t="s">
         <v>7734</v>
       </c>
+      <c r="J1015">
+        <v>0</v>
+      </c>
       <c r="K1015">
         <v>15</v>
       </c>
@@ -62883,6 +64425,9 @@
       <c r="G1016" s="3" t="s">
         <v>6988</v>
       </c>
+      <c r="J1016">
+        <v>0</v>
+      </c>
       <c r="K1016">
         <v>15</v>
       </c>
@@ -62927,6 +64472,9 @@
       <c r="G1017" s="3" t="s">
         <v>7527</v>
       </c>
+      <c r="J1017">
+        <v>0</v>
+      </c>
       <c r="K1017">
         <v>15</v>
       </c>
@@ -62956,6 +64504,9 @@
       <c r="F1018" t="s">
         <v>3713</v>
       </c>
+      <c r="J1018">
+        <v>0</v>
+      </c>
       <c r="K1018">
         <v>15</v>
       </c>
@@ -62991,6 +64542,9 @@
       <c r="G1019" s="3" t="s">
         <v>6743</v>
       </c>
+      <c r="J1019">
+        <v>0</v>
+      </c>
       <c r="K1019">
         <v>32</v>
       </c>
@@ -63038,6 +64592,9 @@
       <c r="G1020" s="3" t="s">
         <v>6817</v>
       </c>
+      <c r="J1020">
+        <v>0</v>
+      </c>
       <c r="K1020">
         <v>32</v>
       </c>
@@ -63070,6 +64627,9 @@
       <c r="F1021" t="s">
         <v>3615</v>
       </c>
+      <c r="J1021">
+        <v>0</v>
+      </c>
       <c r="K1021">
         <v>32</v>
       </c>
@@ -63102,6 +64662,9 @@
       <c r="G1022" s="3" t="s">
         <v>7360</v>
       </c>
+      <c r="J1022">
+        <v>0</v>
+      </c>
       <c r="K1022">
         <v>32</v>
       </c>
@@ -63134,6 +64697,9 @@
       <c r="G1023" s="3" t="s">
         <v>7391</v>
       </c>
+      <c r="J1023">
+        <v>0</v>
+      </c>
       <c r="K1023">
         <v>32</v>
       </c>
@@ -63166,6 +64732,9 @@
       <c r="G1024" s="3" t="s">
         <v>7481</v>
       </c>
+      <c r="J1024">
+        <v>0</v>
+      </c>
       <c r="K1024">
         <v>32</v>
       </c>
@@ -63201,6 +64770,9 @@
       <c r="G1025" s="3" t="s">
         <v>7586</v>
       </c>
+      <c r="J1025">
+        <v>0</v>
+      </c>
       <c r="K1025">
         <v>32</v>
       </c>
@@ -63233,6 +64805,9 @@
       <c r="G1026" s="3" t="s">
         <v>7649</v>
       </c>
+      <c r="J1026">
+        <v>0</v>
+      </c>
       <c r="K1026">
         <v>32</v>
       </c>
@@ -63262,6 +64837,9 @@
       <c r="F1027" t="s">
         <v>134</v>
       </c>
+      <c r="J1027">
+        <v>0</v>
+      </c>
       <c r="K1027">
         <v>32</v>
       </c>
@@ -63303,6 +64881,9 @@
       <c r="F1028" t="s">
         <v>2035</v>
       </c>
+      <c r="J1028">
+        <v>0</v>
+      </c>
       <c r="K1028">
         <v>32</v>
       </c>
@@ -63341,6 +64922,9 @@
       <c r="G1029" s="3" t="s">
         <v>7002</v>
       </c>
+      <c r="J1029">
+        <v>0</v>
+      </c>
       <c r="K1029">
         <v>39</v>
       </c>
@@ -63385,6 +64969,9 @@
       <c r="G1030" s="3" t="s">
         <v>7236</v>
       </c>
+      <c r="J1030">
+        <v>0</v>
+      </c>
       <c r="K1030">
         <v>39</v>
       </c>
@@ -63420,6 +65007,9 @@
       <c r="G1031" s="3" t="s">
         <v>6708</v>
       </c>
+      <c r="J1031">
+        <v>0</v>
+      </c>
       <c r="K1031">
         <v>32</v>
       </c>
@@ -63464,6 +65054,9 @@
       <c r="G1032" s="3" t="s">
         <v>6863</v>
       </c>
+      <c r="J1032">
+        <v>0</v>
+      </c>
       <c r="K1032">
         <v>15</v>
       </c>
@@ -63508,6 +65101,9 @@
       <c r="G1033" s="3" t="s">
         <v>7101</v>
       </c>
+      <c r="J1033">
+        <v>0</v>
+      </c>
       <c r="K1033">
         <v>15</v>
       </c>
@@ -63543,6 +65139,9 @@
       <c r="G1034" s="3" t="s">
         <v>6882</v>
       </c>
+      <c r="J1034">
+        <v>0</v>
+      </c>
       <c r="K1034">
         <v>32</v>
       </c>
@@ -63581,6 +65180,9 @@
       <c r="F1035" t="s">
         <v>2091</v>
       </c>
+      <c r="J1035">
+        <v>0</v>
+      </c>
       <c r="K1035">
         <v>32</v>
       </c>
@@ -63616,6 +65218,9 @@
       <c r="F1036" t="s">
         <v>4686</v>
       </c>
+      <c r="J1036">
+        <v>0</v>
+      </c>
       <c r="K1036">
         <v>32</v>
       </c>
@@ -63651,6 +65256,9 @@
       <c r="G1037" s="3" t="s">
         <v>7479</v>
       </c>
+      <c r="J1037">
+        <v>0</v>
+      </c>
       <c r="K1037">
         <v>32</v>
       </c>
@@ -64476,6 +66084,9 @@
       <c r="F1058" t="s">
         <v>335</v>
       </c>
+      <c r="J1058">
+        <v>0</v>
+      </c>
       <c r="K1058">
         <v>28</v>
       </c>
@@ -64523,6 +66134,9 @@
       <c r="G1059" s="3" t="s">
         <v>6783</v>
       </c>
+      <c r="J1059">
+        <v>0</v>
+      </c>
       <c r="K1059">
         <v>28</v>
       </c>
@@ -64567,6 +66181,9 @@
       <c r="G1060" s="3" t="s">
         <v>6784</v>
       </c>
+      <c r="J1060">
+        <v>0</v>
+      </c>
       <c r="K1060">
         <v>28</v>
       </c>
@@ -64611,6 +66228,9 @@
       <c r="G1061" s="3" t="s">
         <v>6806</v>
       </c>
+      <c r="J1061">
+        <v>0</v>
+      </c>
       <c r="K1061">
         <v>28</v>
       </c>
@@ -64658,6 +66278,9 @@
       <c r="G1062" s="3" t="s">
         <v>6819</v>
       </c>
+      <c r="J1062">
+        <v>0</v>
+      </c>
       <c r="K1062">
         <v>28</v>
       </c>
@@ -64702,6 +66325,9 @@
       <c r="G1063" s="3" t="s">
         <v>6842</v>
       </c>
+      <c r="J1063">
+        <v>0</v>
+      </c>
       <c r="K1063">
         <v>28</v>
       </c>
@@ -64749,6 +66375,9 @@
       <c r="G1064" s="3" t="s">
         <v>6857</v>
       </c>
+      <c r="J1064">
+        <v>0</v>
+      </c>
       <c r="K1064">
         <v>28</v>
       </c>
@@ -64793,6 +66422,9 @@
       <c r="G1065" s="3" t="s">
         <v>6879</v>
       </c>
+      <c r="J1065">
+        <v>0</v>
+      </c>
       <c r="K1065">
         <v>28</v>
       </c>
@@ -64834,6 +66466,9 @@
       <c r="G1066" s="3" t="s">
         <v>6913</v>
       </c>
+      <c r="J1066">
+        <v>0</v>
+      </c>
       <c r="K1066">
         <v>28</v>
       </c>
@@ -64881,6 +66516,9 @@
       <c r="G1067" s="3" t="s">
         <v>6939</v>
       </c>
+      <c r="J1067">
+        <v>0</v>
+      </c>
       <c r="K1067">
         <v>28</v>
       </c>
@@ -64925,6 +66563,9 @@
       <c r="G1068" s="3" t="s">
         <v>6944</v>
       </c>
+      <c r="J1068">
+        <v>0</v>
+      </c>
       <c r="K1068">
         <v>28</v>
       </c>
@@ -64972,6 +66613,9 @@
       <c r="G1069" s="3" t="s">
         <v>7020</v>
       </c>
+      <c r="J1069">
+        <v>0</v>
+      </c>
       <c r="K1069">
         <v>28</v>
       </c>
@@ -65019,6 +66663,9 @@
       <c r="G1070" s="3" t="s">
         <v>7046</v>
       </c>
+      <c r="J1070">
+        <v>0</v>
+      </c>
       <c r="K1070">
         <v>28</v>
       </c>
@@ -65060,6 +66707,9 @@
       <c r="F1071" t="s">
         <v>2164</v>
       </c>
+      <c r="J1071">
+        <v>0</v>
+      </c>
       <c r="K1071">
         <v>28</v>
       </c>
@@ -65101,6 +66751,9 @@
       <c r="F1072" t="s">
         <v>2261</v>
       </c>
+      <c r="J1072">
+        <v>0</v>
+      </c>
       <c r="K1072">
         <v>28</v>
       </c>
@@ -65145,6 +66798,9 @@
       <c r="G1073" s="3" t="s">
         <v>7152</v>
       </c>
+      <c r="J1073">
+        <v>0</v>
+      </c>
       <c r="K1073">
         <v>28</v>
       </c>
@@ -65180,6 +66836,9 @@
       <c r="G1074" s="3" t="s">
         <v>7345</v>
       </c>
+      <c r="J1074">
+        <v>0</v>
+      </c>
       <c r="K1074">
         <v>28</v>
       </c>
@@ -65212,6 +66871,9 @@
       <c r="F1075" t="s">
         <v>3828</v>
       </c>
+      <c r="J1075">
+        <v>0</v>
+      </c>
       <c r="K1075">
         <v>28</v>
       </c>
@@ -65244,6 +66906,9 @@
       <c r="G1076" s="3" t="s">
         <v>7379</v>
       </c>
+      <c r="J1076">
+        <v>0</v>
+      </c>
       <c r="K1076">
         <v>28</v>
       </c>
@@ -65279,6 +66944,9 @@
       <c r="G1077" s="3" t="s">
         <v>7425</v>
       </c>
+      <c r="J1077">
+        <v>0</v>
+      </c>
       <c r="K1077">
         <v>28</v>
       </c>
@@ -65311,6 +66979,9 @@
       <c r="G1078" s="3" t="s">
         <v>7433</v>
       </c>
+      <c r="J1078">
+        <v>0</v>
+      </c>
       <c r="K1078">
         <v>28</v>
       </c>
@@ -65343,6 +67014,9 @@
       <c r="G1079" s="3" t="s">
         <v>7528</v>
       </c>
+      <c r="J1079">
+        <v>0</v>
+      </c>
       <c r="K1079">
         <v>28</v>
       </c>
@@ -65375,6 +67049,9 @@
       <c r="G1080" s="3" t="s">
         <v>7544</v>
       </c>
+      <c r="J1080">
+        <v>0</v>
+      </c>
       <c r="K1080">
         <v>28</v>
       </c>
@@ -65407,6 +67084,9 @@
       <c r="G1081" s="3" t="s">
         <v>7589</v>
       </c>
+      <c r="J1081">
+        <v>0</v>
+      </c>
       <c r="K1081">
         <v>28</v>
       </c>
@@ -65442,6 +67122,9 @@
       <c r="G1082" s="3" t="s">
         <v>7619</v>
       </c>
+      <c r="J1082">
+        <v>0</v>
+      </c>
       <c r="K1082">
         <v>28</v>
       </c>
@@ -65477,6 +67160,9 @@
       <c r="G1083" s="3" t="s">
         <v>7653</v>
       </c>
+      <c r="J1083">
+        <v>0</v>
+      </c>
       <c r="K1083">
         <v>28</v>
       </c>
@@ -65512,6 +67198,9 @@
       <c r="G1084" s="3" t="s">
         <v>7445</v>
       </c>
+      <c r="J1084">
+        <v>0</v>
+      </c>
       <c r="K1084">
         <v>28</v>
       </c>
@@ -65547,6 +67236,9 @@
       <c r="I1085" t="s">
         <v>7799</v>
       </c>
+      <c r="J1085">
+        <v>0</v>
+      </c>
       <c r="K1085">
         <v>28</v>
       </c>
@@ -65579,6 +67271,9 @@
       <c r="F1086" t="s">
         <v>2906</v>
       </c>
+      <c r="J1086">
+        <v>0</v>
+      </c>
       <c r="K1086">
         <v>28</v>
       </c>
@@ -65611,6 +67306,9 @@
       <c r="G1087" s="3" t="s">
         <v>7133</v>
       </c>
+      <c r="J1087">
+        <v>0</v>
+      </c>
       <c r="K1087">
         <v>28</v>
       </c>
@@ -65643,6 +67341,9 @@
       <c r="G1088" s="3" t="s">
         <v>7534</v>
       </c>
+      <c r="J1088">
+        <v>0</v>
+      </c>
       <c r="K1088">
         <v>28</v>
       </c>
@@ -65678,6 +67379,9 @@
       <c r="G1089" s="3" t="s">
         <v>6878</v>
       </c>
+      <c r="J1089">
+        <v>0</v>
+      </c>
       <c r="K1089">
         <v>28</v>
       </c>
@@ -65722,6 +67426,9 @@
       <c r="G1090" s="3" t="s">
         <v>7129</v>
       </c>
+      <c r="J1090">
+        <v>0</v>
+      </c>
       <c r="K1090">
         <v>28</v>
       </c>
@@ -65756,6 +67463,9 @@
       </c>
       <c r="G1091" s="3" t="s">
         <v>7087</v>
+      </c>
+      <c r="J1091">
+        <v>0</v>
       </c>
       <c r="K1091">
         <v>28</v>
